--- a/test_video_splits_rationale/transcribe_request_NVIDIA/012/12_2012_s_1_therapist_02.10.2024_0001_transcript.xlsx
+++ b/test_video_splits_rationale/transcribe_request_NVIDIA/012/12_2012_s_1_therapist_02.10.2024_0001_transcript.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId3"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="629">
   <si>
     <t xml:space="preserve">segment_id</t>
   </si>
@@ -69,6 +69,15 @@
     <t xml:space="preserve">P_fin</t>
   </si>
   <si>
+    <t xml:space="preserve">engagement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selfreflection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">homework</t>
+  </si>
+  <si>
     <t xml:space="preserve">T: Ich krieg die Daten, die wir jetzt hier machen.</t>
   </si>
   <si>
@@ -1891,15 +1900,6 @@
   </si>
   <si>
     <t xml:space="preserve">pat_hesitant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">engagement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selfreflection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">homework</t>
   </si>
   <si>
     <t xml:space="preserve">alliance</t>
@@ -2218,15 +2218,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O190"/>
+  <dimension ref="A1:R190"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2272,13 +2272,22 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>0.051</v>
@@ -2302,10 +2311,10 @@
         <v>9</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L2" s="2" t="n">
         <v>0.0217005897185262</v>
@@ -2319,13 +2328,22 @@
       <c r="O2" s="2" t="n">
         <v>0.252629650655298</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P2" s="2" t="n">
+        <v>0.747370349344703</v>
+      </c>
+      <c r="Q2" s="2" t="n">
+        <v>0.252629650655298</v>
+      </c>
+      <c r="R2" s="2" t="n">
+        <v>0.403155565261841</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.672</v>
@@ -2349,10 +2367,10 @@
         <v>12</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L3" s="2" t="n">
         <v>-0.339208203390442</v>
@@ -2366,13 +2384,22 @@
       <c r="O3" s="2" t="n">
         <v>0.00355756379486936</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P3" s="2" t="n">
+        <v>0.996442436205131</v>
+      </c>
+      <c r="Q3" s="2" t="n">
+        <v>0.00355756379486936</v>
+      </c>
+      <c r="R3" s="2" t="n">
+        <v>0.582253515720367</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>9.715</v>
@@ -2396,10 +2423,10 @@
         <v>11</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L4" s="2" t="n">
         <v>-0.365928141356329</v>
@@ -2413,13 +2440,22 @@
       <c r="O4" s="2" t="n">
         <v>0.0045050893681943</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P4" s="2" t="n">
+        <v>0.995494910631806</v>
+      </c>
+      <c r="Q4" s="2" t="n">
+        <v>0.0045050893681943</v>
+      </c>
+      <c r="R4" s="2" t="n">
+        <v>0.675550639629364</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>14.877</v>
@@ -2443,10 +2479,10 @@
         <v>5</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L5" s="2" t="n">
         <v>-0.412976318041166</v>
@@ -2460,13 +2496,22 @@
       <c r="O5" s="2" t="n">
         <v>1.12691406489469E-005</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P5" s="2" t="n">
+        <v>0.999988730859351</v>
+      </c>
+      <c r="Q5" s="2" t="n">
+        <v>1.12691406489469E-005</v>
+      </c>
+      <c r="R5" s="2" t="n">
+        <v>0.698329448699951</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>17.038</v>
@@ -2490,10 +2535,10 @@
         <v>2</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L6" s="2" t="n">
         <v>0.126935958418295</v>
@@ -2507,13 +2552,22 @@
       <c r="O6" s="2" t="n">
         <v>0.295174669097681</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P6" s="2" t="n">
+        <v>0.704825330902319</v>
+      </c>
+      <c r="Q6" s="2" t="n">
+        <v>0.295174669097681</v>
+      </c>
+      <c r="R6" s="2" t="n">
+        <v>0.161452412605286</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>18.319</v>
@@ -2537,10 +2591,10 @@
         <v>9</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L7" s="2" t="n">
         <v>-0.529907531111124</v>
@@ -2554,13 +2608,22 @@
       <c r="O7" s="2" t="n">
         <v>1.67598089279493E-007</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P7" s="2" t="n">
+        <v>0.999999832401911</v>
+      </c>
+      <c r="Q7" s="2" t="n">
+        <v>1.67598089279493E-007</v>
+      </c>
+      <c r="R7" s="2" t="n">
+        <v>0.569014668464661</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>20.9</v>
@@ -2584,10 +2647,10 @@
         <v>8</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L8" s="2" t="n">
         <v>0.490816587973559</v>
@@ -2601,13 +2664,22 @@
       <c r="O8" s="2" t="n">
         <v>0.996567377758019</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P8" s="2" t="n">
+        <v>0.00343262224198112</v>
+      </c>
+      <c r="Q8" s="2" t="n">
+        <v>0.996567377758019</v>
+      </c>
+      <c r="R8" s="2" t="n">
+        <v>0.368860274553299</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>23.721</v>
@@ -2631,10 +2703,10 @@
         <v>2</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L9" s="2" t="n">
         <v>-0.134654881531109</v>
@@ -2648,13 +2720,22 @@
       <c r="O9" s="2" t="n">
         <v>0.00650464852045686</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P9" s="2" t="n">
+        <v>0.993495351479543</v>
+      </c>
+      <c r="Q9" s="2" t="n">
+        <v>0.00650464852045686</v>
+      </c>
+      <c r="R9" s="2" t="n">
+        <v>0.0785009786486626</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>25.559</v>
@@ -2678,10 +2759,10 @@
         <v>16</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L10" s="2" t="n">
         <v>-0.592386466098169</v>
@@ -2695,13 +2776,22 @@
       <c r="O10" s="2" t="n">
         <v>1.79512397985024E-008</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P10" s="2" t="n">
+        <v>0.99999998204876</v>
+      </c>
+      <c r="Q10" s="2" t="n">
+        <v>1.79512397985024E-008</v>
+      </c>
+      <c r="R10" s="2" t="n">
+        <v>0.578864812850952</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>30.041</v>
@@ -2725,10 +2815,10 @@
         <v>3</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L11" s="2" t="n">
         <v>0.317966706005681</v>
@@ -2742,13 +2832,22 @@
       <c r="O11" s="2" t="n">
         <v>0.801789467200287</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P11" s="2" t="n">
+        <v>0.198210532799713</v>
+      </c>
+      <c r="Q11" s="2" t="n">
+        <v>0.801789467200287</v>
+      </c>
+      <c r="R11" s="2" t="n">
+        <v>0.0362882986664772</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>32.202</v>
@@ -2772,10 +2871,10 @@
         <v>9</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L12" s="2" t="n">
         <v>-0.492350848429183</v>
@@ -2789,13 +2888,22 @@
       <c r="O12" s="2" t="n">
         <v>3.54475776527935E-006</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P12" s="2" t="n">
+        <v>0.999996455242235</v>
+      </c>
+      <c r="Q12" s="2" t="n">
+        <v>3.54475776527935E-006</v>
+      </c>
+      <c r="R12" s="2" t="n">
+        <v>0.764891564846039</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>34.123</v>
@@ -2819,10 +2927,10 @@
         <v>1</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L13" s="2" t="n">
         <v>0.158893603072157</v>
@@ -2836,13 +2944,22 @@
       <c r="O13" s="2" t="n">
         <v>0.841245587812199</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P13" s="2" t="n">
+        <v>0.158754412187801</v>
+      </c>
+      <c r="Q13" s="2" t="n">
+        <v>0.841245587812199</v>
+      </c>
+      <c r="R13" s="2" t="n">
+        <v>0.540438830852509</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>35.323</v>
@@ -2866,10 +2983,10 @@
         <v>9</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L14" s="2" t="n">
         <v>-0.577599552748234</v>
@@ -2883,13 +3000,22 @@
       <c r="O14" s="2" t="n">
         <v>6.01086011294449E-008</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P14" s="2" t="n">
+        <v>0.999999939891399</v>
+      </c>
+      <c r="Q14" s="2" t="n">
+        <v>6.01086011294449E-008</v>
+      </c>
+      <c r="R14" s="2" t="n">
+        <v>0.633637070655823</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>38.165</v>
@@ -2913,10 +3039,10 @@
         <v>3</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L15" s="2" t="n">
         <v>0.0446145268585351</v>
@@ -2930,13 +3056,22 @@
       <c r="O15" s="2" t="n">
         <v>0.35359026068726</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P15" s="2" t="n">
+        <v>0.64640973931274</v>
+      </c>
+      <c r="Q15" s="2" t="n">
+        <v>0.35359026068726</v>
+      </c>
+      <c r="R15" s="2" t="n">
+        <v>0.408453702926636</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>39.985</v>
@@ -2960,10 +3095,10 @@
         <v>5</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L16" s="2" t="n">
         <v>-0.243866576215859</v>
@@ -2977,13 +3112,22 @@
       <c r="O16" s="2" t="n">
         <v>8.44434748443534E-006</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P16" s="2" t="n">
+        <v>0.999991555652516</v>
+      </c>
+      <c r="Q16" s="2" t="n">
+        <v>8.44434748443534E-006</v>
+      </c>
+      <c r="R16" s="2" t="n">
+        <v>0.130064263939858</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>41.906</v>
@@ -3007,10 +3151,10 @@
         <v>3</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L17" s="2" t="n">
         <v>0.174855103119307</v>
@@ -3024,13 +3168,22 @@
       <c r="O17" s="2" t="n">
         <v>0.973316534772298</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P17" s="2" t="n">
+        <v>0.0266834652277015</v>
+      </c>
+      <c r="Q17" s="2" t="n">
+        <v>0.973316534772298</v>
+      </c>
+      <c r="R17" s="2" t="n">
+        <v>0.901401102542877</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>43.147</v>
@@ -3054,10 +3207,10 @@
         <v>11</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L18" s="2" t="n">
         <v>0.436311432954072</v>
@@ -3071,13 +3224,22 @@
       <c r="O18" s="2" t="n">
         <v>0.999602334891903</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P18" s="2" t="n">
+        <v>0.000397665108097171</v>
+      </c>
+      <c r="Q18" s="2" t="n">
+        <v>0.999602334891903</v>
+      </c>
+      <c r="R18" s="2" t="n">
+        <v>0.97334223985672</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>45.928</v>
@@ -3101,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L19" s="2" t="n">
         <v>-0.115215979305089</v>
@@ -3118,13 +3280,22 @@
       <c r="O19" s="2" t="n">
         <v>0.00664192505015375</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P19" s="2" t="n">
+        <v>0.993358074949846</v>
+      </c>
+      <c r="Q19" s="2" t="n">
+        <v>0.00664192505015375</v>
+      </c>
+      <c r="R19" s="2" t="n">
+        <v>0.0226292014122009</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>46.888</v>
@@ -3148,10 +3319,10 @@
         <v>8</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L20" s="2" t="n">
         <v>0.373990077421344</v>
@@ -3165,13 +3336,22 @@
       <c r="O20" s="2" t="n">
         <v>0.999195844176573</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P20" s="2" t="n">
+        <v>0.000804155823426603</v>
+      </c>
+      <c r="Q20" s="2" t="n">
+        <v>0.999195844176573</v>
+      </c>
+      <c r="R20" s="2" t="n">
+        <v>0.998058140277863</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>49.97</v>
@@ -3195,10 +3375,10 @@
         <v>5</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L21" s="2" t="n">
         <v>0.293380452659155</v>
@@ -3212,13 +3392,22 @@
       <c r="O21" s="2" t="n">
         <v>0.997357543408242</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P21" s="2" t="n">
+        <v>0.00264245659175759</v>
+      </c>
+      <c r="Q21" s="2" t="n">
+        <v>0.997357543408242</v>
+      </c>
+      <c r="R21" s="2" t="n">
+        <v>0.995651662349701</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>51.53</v>
@@ -3242,10 +3431,10 @@
         <v>5</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L22" s="2" t="n">
         <v>0.385938919143651</v>
@@ -3259,13 +3448,22 @@
       <c r="O22" s="2" t="n">
         <v>0.999327957186913</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P22" s="2" t="n">
+        <v>0.000672042813086979</v>
+      </c>
+      <c r="Q22" s="2" t="n">
+        <v>0.999327957186913</v>
+      </c>
+      <c r="R22" s="2" t="n">
+        <v>0.998905539512634</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>53.548</v>
@@ -3289,10 +3487,10 @@
         <v>15</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L23" s="2" t="n">
         <v>0.729936674027773</v>
@@ -3306,13 +3504,22 @@
       <c r="O23" s="2" t="n">
         <v>0.999995608418551</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P23" s="2" t="n">
+        <v>4.39158144917642E-006</v>
+      </c>
+      <c r="Q23" s="2" t="n">
+        <v>0.999995608418551</v>
+      </c>
+      <c r="R23" s="2" t="n">
+        <v>0.998035371303558</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>58.274</v>
@@ -3336,10 +3543,10 @@
         <v>18</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L24" s="2" t="n">
         <v>0.666562510347976</v>
@@ -3353,13 +3560,22 @@
       <c r="O24" s="2" t="n">
         <v>0.999988853236733</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P24" s="2" t="n">
+        <v>1.11467632668167E-005</v>
+      </c>
+      <c r="Q24" s="2" t="n">
+        <v>0.999988853236733</v>
+      </c>
+      <c r="R24" s="2" t="n">
+        <v>0.998058140277863</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>64.863</v>
@@ -3383,10 +3599,10 @@
         <v>12</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L25" s="2" t="n">
         <v>0.619052457470368</v>
@@ -3400,13 +3616,22 @@
       <c r="O25" s="2" t="n">
         <v>0.999977707900319</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P25" s="2" t="n">
+        <v>2.2292099680779E-005</v>
+      </c>
+      <c r="Q25" s="2" t="n">
+        <v>0.999977707900319</v>
+      </c>
+      <c r="R25" s="2" t="n">
+        <v>0.997851014137268</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="n">
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>70.687</v>
@@ -3430,10 +3655,10 @@
         <v>1</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L26" s="2" t="n">
         <v>0.0248487713345704</v>
@@ -3447,13 +3672,22 @@
       <c r="O26" s="2" t="n">
         <v>0.0460134642379148</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P26" s="2" t="n">
+        <v>0.953986535762085</v>
+      </c>
+      <c r="Q26" s="2" t="n">
+        <v>0.0460134642379148</v>
+      </c>
+      <c r="R26" s="2" t="n">
+        <v>0.000636191223748028</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>72.207</v>
@@ -3477,10 +3711,10 @@
         <v>18</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L27" s="2" t="n">
         <v>0.69711547927739</v>
@@ -3494,13 +3728,22 @@
       <c r="O27" s="2" t="n">
         <v>0.999992915126145</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P27" s="2" t="n">
+        <v>7.08487385493326E-006</v>
+      </c>
+      <c r="Q27" s="2" t="n">
+        <v>0.999992915126145</v>
+      </c>
+      <c r="R27" s="2" t="n">
+        <v>0.998764872550964</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>78.049</v>
@@ -3524,10 +3767,10 @@
         <v>28</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L28" s="2" t="n">
         <v>0.64395475228781</v>
@@ -3541,13 +3784,22 @@
       <c r="O28" s="2" t="n">
         <v>0.999984611990049</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P28" s="2" t="n">
+        <v>1.53880099515404E-005</v>
+      </c>
+      <c r="Q28" s="2" t="n">
+        <v>0.999984611990049</v>
+      </c>
+      <c r="R28" s="2" t="n">
+        <v>0.999195873737335</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="n">
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>86.212</v>
@@ -3571,10 +3823,10 @@
         <v>10</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="L29" s="2" t="n">
         <v>0.514985189596568</v>
@@ -3588,13 +3840,22 @@
       <c r="O29" s="2" t="n">
         <v>0.999898234186659</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P29" s="2" t="n">
+        <v>0.000101765813341168</v>
+      </c>
+      <c r="Q29" s="2" t="n">
+        <v>0.999898234186659</v>
+      </c>
+      <c r="R29" s="2" t="n">
+        <v>0.998705625534058</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="n">
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>89.152</v>
@@ -3618,10 +3879,10 @@
         <v>5</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L30" s="2" t="n">
         <v>0.203634868317356</v>
@@ -3635,13 +3896,22 @@
       <c r="O30" s="2" t="n">
         <v>0.989585647596527</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P30" s="2" t="n">
+        <v>0.0104143524034732</v>
+      </c>
+      <c r="Q30" s="2" t="n">
+        <v>0.989585647596527</v>
+      </c>
+      <c r="R30" s="2" t="n">
+        <v>0.984634697437286</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="n">
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>91.333</v>
@@ -3665,10 +3935,10 @@
         <v>4</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L31" s="2" t="n">
         <v>-0.388004920904752</v>
@@ -3682,13 +3952,22 @@
       <c r="O31" s="2" t="n">
         <v>1.62807410433665E-007</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P31" s="2" t="n">
+        <v>0.99999983719259</v>
+      </c>
+      <c r="Q31" s="2" t="n">
+        <v>1.62807410433665E-007</v>
+      </c>
+      <c r="R31" s="2" t="n">
+        <v>0.153042152523994</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="n">
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>93.896</v>
@@ -3712,10 +3991,10 @@
         <v>2</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L32" s="2" t="n">
         <v>0.0868631834207221</v>
@@ -3729,13 +4008,22 @@
       <c r="O32" s="2" t="n">
         <v>0.910533030079943</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P32" s="2" t="n">
+        <v>0.0894669699200566</v>
+      </c>
+      <c r="Q32" s="2" t="n">
+        <v>0.910533030079943</v>
+      </c>
+      <c r="R32" s="2" t="n">
+        <v>0.87364661693573</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="n">
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>95.377</v>
@@ -3759,10 +4047,10 @@
         <v>6</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L33" s="2" t="n">
         <v>-0.290414051374163</v>
@@ -3776,13 +4064,22 @@
       <c r="O33" s="2" t="n">
         <v>1.66269779973671E-006</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P33" s="2" t="n">
+        <v>0.9999983373022</v>
+      </c>
+      <c r="Q33" s="2" t="n">
+        <v>1.66269779973671E-006</v>
+      </c>
+      <c r="R33" s="2" t="n">
+        <v>0.0765456333756447</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="n">
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>98.179</v>
@@ -3806,10 +4103,10 @@
         <v>6</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L34" s="2" t="n">
         <v>0.263885488771366</v>
@@ -3823,13 +4120,22 @@
       <c r="O34" s="2" t="n">
         <v>0.995927511959509</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P34" s="2" t="n">
+        <v>0.0040724880404916</v>
+      </c>
+      <c r="Q34" s="2" t="n">
+        <v>0.995927511959509</v>
+      </c>
+      <c r="R34" s="2" t="n">
+        <v>0.996378362178803</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="n">
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>100.181</v>
@@ -3853,10 +4159,10 @@
         <v>8</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L35" s="2" t="n">
         <v>0.37529959841665</v>
@@ -3870,13 +4176,22 @@
       <c r="O35" s="2" t="n">
         <v>0.999207971299939</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P35" s="2" t="n">
+        <v>0.000792028700060809</v>
+      </c>
+      <c r="Q35" s="2" t="n">
+        <v>0.999207971299939</v>
+      </c>
+      <c r="R35" s="2" t="n">
+        <v>0.99690055847168</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="n">
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>101.843</v>
@@ -3900,10 +4215,10 @@
         <v>7</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="L36" s="2" t="n">
         <v>0.455091985443962</v>
@@ -3917,13 +4232,22 @@
       <c r="O36" s="2" t="n">
         <v>0.999754348643945</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P36" s="2" t="n">
+        <v>0.00024565135605499</v>
+      </c>
+      <c r="Q36" s="2" t="n">
+        <v>0.999754348643945</v>
+      </c>
+      <c r="R36" s="2" t="n">
+        <v>0.998117804527283</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="n">
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>104.265</v>
@@ -3947,10 +4271,10 @@
         <v>5</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L37" s="2" t="n">
         <v>0.232561097822761</v>
@@ -3964,13 +4288,22 @@
       <c r="O37" s="2" t="n">
         <v>0.993526227828381</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P37" s="2" t="n">
+        <v>0.00647377217161855</v>
+      </c>
+      <c r="Q37" s="2" t="n">
+        <v>0.993526227828381</v>
+      </c>
+      <c r="R37" s="2" t="n">
+        <v>0.99583375453949</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="n">
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>105.486</v>
@@ -3994,10 +4327,10 @@
         <v>14</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L38" s="2" t="n">
         <v>0.629438403849069</v>
@@ -4011,13 +4344,22 @@
       <c r="O38" s="2" t="n">
         <v>0.999980779931079</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P38" s="2" t="n">
+        <v>1.92200689211045E-005</v>
+      </c>
+      <c r="Q38" s="2" t="n">
+        <v>0.999980779931079</v>
+      </c>
+      <c r="R38" s="2" t="n">
+        <v>0.997593939304352</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="n">
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>109.049</v>
@@ -4041,10 +4383,10 @@
         <v>8</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L39" s="2" t="n">
         <v>0.51916704403417</v>
@@ -4058,13 +4400,22 @@
       <c r="O39" s="2" t="n">
         <v>0.999835140290257</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P39" s="2" t="n">
+        <v>0.000164859709742982</v>
+      </c>
+      <c r="Q39" s="2" t="n">
+        <v>0.999835140290257</v>
+      </c>
+      <c r="R39" s="2" t="n">
+        <v>0.896251380443573</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="n">
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>111.931</v>
@@ -4088,10 +4439,10 @@
         <v>10</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L40" s="2" t="n">
         <v>0.625326361539172</v>
@@ -4105,13 +4456,22 @@
       <c r="O40" s="2" t="n">
         <v>0.999823076179928</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P40" s="2" t="n">
+        <v>0.000176923820071948</v>
+      </c>
+      <c r="Q40" s="2" t="n">
+        <v>0.999823076179928</v>
+      </c>
+      <c r="R40" s="2" t="n">
+        <v>0.526220977306366</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="n">
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>117.193</v>
@@ -4135,10 +4495,10 @@
         <v>5</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L41" s="2" t="n">
         <v>0.430448830935134</v>
@@ -4152,13 +4512,22 @@
       <c r="O41" s="2" t="n">
         <v>0.999547470754686</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P41" s="2" t="n">
+        <v>0.000452529245313588</v>
+      </c>
+      <c r="Q41" s="2" t="n">
+        <v>0.999547470754686</v>
+      </c>
+      <c r="R41" s="2" t="n">
+        <v>0.949294626712799</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="n">
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>118.634</v>
@@ -4182,10 +4551,10 @@
         <v>6</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L42" s="2" t="n">
         <v>0.462222819086273</v>
@@ -4199,13 +4568,22 @@
       <c r="O42" s="2" t="n">
         <v>0.999778377577496</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P42" s="2" t="n">
+        <v>0.000221622422504206</v>
+      </c>
+      <c r="Q42" s="2" t="n">
+        <v>0.999778377577496</v>
+      </c>
+      <c r="R42" s="2" t="n">
+        <v>0.997209966182709</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="n">
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>119.895</v>
@@ -4229,10 +4607,10 @@
         <v>11</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="L43" s="2" t="n">
         <v>0.505668505755007</v>
@@ -4246,13 +4624,22 @@
       <c r="O43" s="2" t="n">
         <v>0.999883712901357</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P43" s="2" t="n">
+        <v>0.000116287098642931</v>
+      </c>
+      <c r="Q43" s="2" t="n">
+        <v>0.999883712901357</v>
+      </c>
+      <c r="R43" s="2" t="n">
+        <v>0.998654127120972</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="n">
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>122.897</v>
@@ -4276,10 +4663,10 @@
         <v>1</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="L44" s="2" t="n">
         <v>0.146208594708202</v>
@@ -4293,13 +4680,22 @@
       <c r="O44" s="2" t="n">
         <v>0.257548401728313</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P44" s="2" t="n">
+        <v>0.742451598271687</v>
+      </c>
+      <c r="Q44" s="2" t="n">
+        <v>0.257548401728313</v>
+      </c>
+      <c r="R44" s="2" t="n">
+        <v>0.0373268872499466</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="n">
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>123.778</v>
@@ -4323,10 +4719,10 @@
         <v>11</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L45" s="2" t="n">
         <v>0.697975632953049</v>
@@ -4340,13 +4736,22 @@
       <c r="O45" s="2" t="n">
         <v>0.999993012736049</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P45" s="2" t="n">
+        <v>6.98726395151488E-006</v>
+      </c>
+      <c r="Q45" s="2" t="n">
+        <v>0.999993012736049</v>
+      </c>
+      <c r="R45" s="2" t="n">
+        <v>0.998584151268005</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="n">
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>127.381</v>
@@ -4370,10 +4775,10 @@
         <v>24</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="L46" s="2" t="n">
         <v>0.901815471539091</v>
@@ -4387,13 +4792,22 @@
       <c r="O46" s="2" t="n">
         <v>0.999999646563155</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P46" s="2" t="n">
+        <v>3.53436844697281E-007</v>
+      </c>
+      <c r="Q46" s="2" t="n">
+        <v>0.999999646563155</v>
+      </c>
+      <c r="R46" s="2" t="n">
+        <v>0.999127209186554</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="n">
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>136.767</v>
@@ -4417,10 +4831,10 @@
         <v>32</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L47" s="2" t="n">
         <v>0.856211600552753</v>
@@ -4434,13 +4848,22 @@
       <c r="O47" s="2" t="n">
         <v>0.999999311226721</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P47" s="2" t="n">
+        <v>6.88773279086719E-007</v>
+      </c>
+      <c r="Q47" s="2" t="n">
+        <v>0.999999311226721</v>
+      </c>
+      <c r="R47" s="2" t="n">
+        <v>0.999052703380585</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="n">
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>148.573</v>
@@ -4464,10 +4887,10 @@
         <v>7</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L48" s="2" t="n">
         <v>0.24112469367292</v>
@@ -4481,13 +4904,22 @@
       <c r="O48" s="2" t="n">
         <v>0.99443276547233</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P48" s="2" t="n">
+        <v>0.00556723452766969</v>
+      </c>
+      <c r="Q48" s="2" t="n">
+        <v>0.99443276547233</v>
+      </c>
+      <c r="R48" s="2" t="n">
+        <v>0.99935382604599</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="n">
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>150.854</v>
@@ -4511,10 +4943,10 @@
         <v>18</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L49" s="2" t="n">
         <v>0.0160009044846032</v>
@@ -4528,13 +4960,22 @@
       <c r="O49" s="2" t="n">
         <v>0.869595521660482</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P49" s="2" t="n">
+        <v>0.130404478339518</v>
+      </c>
+      <c r="Q49" s="2" t="n">
+        <v>0.869595521660482</v>
+      </c>
+      <c r="R49" s="2" t="n">
+        <v>0.999376118183136</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="n">
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>156.697</v>
@@ -4558,10 +4999,10 @@
         <v>19</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L50" s="2" t="n">
         <v>0.573480385691429</v>
@@ -4575,13 +5016,22 @@
       <c r="O50" s="2" t="n">
         <v>0.999956959094935</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P50" s="2" t="n">
+        <v>4.30409050648986E-005</v>
+      </c>
+      <c r="Q50" s="2" t="n">
+        <v>0.999956959094935</v>
+      </c>
+      <c r="R50" s="2" t="n">
+        <v>0.999500513076782</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="n">
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>161.239</v>
@@ -4605,10 +5055,10 @@
         <v>15</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L51" s="2" t="n">
         <v>0.641533870393897</v>
@@ -4622,13 +5072,22 @@
       <c r="O51" s="2" t="n">
         <v>0.999984083849567</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P51" s="2" t="n">
+        <v>1.59161504334436E-005</v>
+      </c>
+      <c r="Q51" s="2" t="n">
+        <v>0.999984083849567</v>
+      </c>
+      <c r="R51" s="2" t="n">
+        <v>0.999338448047638</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="n">
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>166.622</v>
@@ -4652,10 +5111,10 @@
         <v>7</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L52" s="2" t="n">
         <v>0.388863216033943</v>
@@ -4669,13 +5128,22 @@
       <c r="O52" s="2" t="n">
         <v>0.999359142224192</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P52" s="2" t="n">
+        <v>0.000640857775807448</v>
+      </c>
+      <c r="Q52" s="2" t="n">
+        <v>0.999359142224192</v>
+      </c>
+      <c r="R52" s="2" t="n">
+        <v>0.999402284622192</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="n">
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>168.924</v>
@@ -4699,10 +5167,10 @@
         <v>10</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L53" s="2" t="n">
         <v>-0.388470175703558</v>
@@ -4716,13 +5184,22 @@
       <c r="O53" s="2" t="n">
         <v>3.99934283455772E-008</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P53" s="2" t="n">
+        <v>0.999999960006572</v>
+      </c>
+      <c r="Q53" s="2" t="n">
+        <v>3.99934283455772E-008</v>
+      </c>
+      <c r="R53" s="2" t="n">
+        <v>0.00186756579205394</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="n">
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>172.185</v>
@@ -4746,10 +5223,10 @@
         <v>9</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L54" s="2" t="n">
         <v>-0.418545390954185</v>
@@ -4763,13 +5240,22 @@
       <c r="O54" s="2" t="n">
         <v>1.66589713116138E-008</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P54" s="2" t="n">
+        <v>0.999999983341029</v>
+      </c>
+      <c r="Q54" s="2" t="n">
+        <v>1.66589713116138E-008</v>
+      </c>
+      <c r="R54" s="2" t="n">
+        <v>0.00214894930832088</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="n">
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>175.868</v>
@@ -4793,10 +5279,10 @@
         <v>4</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L55" s="2" t="n">
         <v>0.209149742409634</v>
@@ -4810,13 +5296,22 @@
       <c r="O55" s="2" t="n">
         <v>0.991051389861213</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P55" s="2" t="n">
+        <v>0.00894861013878673</v>
+      </c>
+      <c r="Q55" s="2" t="n">
+        <v>0.991051389861213</v>
+      </c>
+      <c r="R55" s="2" t="n">
+        <v>0.998862028121948</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="n">
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>176.868</v>
@@ -4840,10 +5335,10 @@
         <v>5</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L56" s="2" t="n">
         <v>0.31949013785095</v>
@@ -4857,13 +5352,22 @@
       <c r="O56" s="2" t="n">
         <v>0.998149385918063</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P56" s="2" t="n">
+        <v>0.00185061408193708</v>
+      </c>
+      <c r="Q56" s="2" t="n">
+        <v>0.998149385918063</v>
+      </c>
+      <c r="R56" s="2" t="n">
+        <v>0.991488695144653</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="n">
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>177.869</v>
@@ -4887,10 +5391,10 @@
         <v>7</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L57" s="2" t="n">
         <v>0.341262609740408</v>
@@ -4904,13 +5408,22 @@
       <c r="O57" s="2" t="n">
         <v>0.997792673253841</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P57" s="2" t="n">
+        <v>0.00220732674615879</v>
+      </c>
+      <c r="Q57" s="2" t="n">
+        <v>0.997792673253841</v>
+      </c>
+      <c r="R57" s="2" t="n">
+        <v>0.903804898262024</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="n">
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>180.53</v>
@@ -4934,10 +5447,10 @@
         <v>2</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L58" s="2" t="n">
         <v>-0.197204996219767</v>
@@ -4951,13 +5464,22 @@
       <c r="O58" s="2" t="n">
         <v>1.47996005060516E-005</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P58" s="2" t="n">
+        <v>0.999985200399494</v>
+      </c>
+      <c r="Q58" s="2" t="n">
+        <v>1.47996005060516E-005</v>
+      </c>
+      <c r="R58" s="2" t="n">
+        <v>0.0262054149061441</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="n">
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>181.571</v>
@@ -4981,10 +5503,10 @@
         <v>1</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L59" s="2" t="n">
         <v>-0.177533283403269</v>
@@ -4998,13 +5520,22 @@
       <c r="O59" s="2" t="n">
         <v>0.00522823209111327</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P59" s="2" t="n">
+        <v>0.994771767908887</v>
+      </c>
+      <c r="Q59" s="2" t="n">
+        <v>0.00522823209111327</v>
+      </c>
+      <c r="R59" s="2" t="n">
+        <v>0.142470344901085</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="n">
         <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>182.591</v>
@@ -5028,10 +5559,10 @@
         <v>4</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L60" s="2" t="n">
         <v>-0.295313228061947</v>
@@ -5045,13 +5576,22 @@
       <c r="O60" s="2" t="n">
         <v>0.038264956824835</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P60" s="2" t="n">
+        <v>0.961735043175165</v>
+      </c>
+      <c r="Q60" s="2" t="n">
+        <v>0.038264956824835</v>
+      </c>
+      <c r="R60" s="2" t="n">
+        <v>0.896432876586914</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="n">
         <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>184.413</v>
@@ -5075,10 +5615,10 @@
         <v>13</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L61" s="2" t="n">
         <v>-0.597101663287248</v>
@@ -5092,13 +5632,22 @@
       <c r="O61" s="2" t="n">
         <v>9.84975386524201E-009</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P61" s="2" t="n">
+        <v>0.999999990150246</v>
+      </c>
+      <c r="Q61" s="2" t="n">
+        <v>9.84975386524201E-009</v>
+      </c>
+      <c r="R61" s="2" t="n">
+        <v>0.478285163640976</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="n">
         <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>188.555</v>
@@ -5122,10 +5671,10 @@
         <v>6</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L62" s="2" t="n">
         <v>0.332705524023778</v>
@@ -5139,13 +5688,22 @@
       <c r="O62" s="2" t="n">
         <v>0.998447223850963</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P62" s="2" t="n">
+        <v>0.00155277614903695</v>
+      </c>
+      <c r="Q62" s="2" t="n">
+        <v>0.998447223850963</v>
+      </c>
+      <c r="R62" s="2" t="n">
+        <v>0.989264845848084</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="n">
         <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>190.596</v>
@@ -5169,10 +5727,10 @@
         <v>1</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L63" s="2" t="n">
         <v>-0.0133307173141096</v>
@@ -5186,13 +5744,22 @@
       <c r="O63" s="2" t="n">
         <v>0.0298995184255092</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P63" s="2" t="n">
+        <v>0.970100481574491</v>
+      </c>
+      <c r="Q63" s="2" t="n">
+        <v>0.0298995184255092</v>
+      </c>
+      <c r="R63" s="2" t="n">
+        <v>0.0222012307494879</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="n">
         <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>191.276</v>
@@ -5216,10 +5783,10 @@
         <v>6</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L64" s="2" t="n">
         <v>0.478205855045023</v>
@@ -5233,13 +5800,22 @@
       <c r="O64" s="2" t="n">
         <v>0.999825409272518</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P64" s="2" t="n">
+        <v>0.000174590727482473</v>
+      </c>
+      <c r="Q64" s="2" t="n">
+        <v>0.999825409272518</v>
+      </c>
+      <c r="R64" s="2" t="n">
+        <v>0.997667729854584</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="n">
         <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>194.495</v>
@@ -5263,10 +5839,10 @@
         <v>9</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="L65" s="2" t="n">
         <v>0.379134856481175</v>
@@ -5280,13 +5856,22 @@
       <c r="O65" s="2" t="n">
         <v>0.999247741225809</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P65" s="2" t="n">
+        <v>0.000752258774190603</v>
+      </c>
+      <c r="Q65" s="2" t="n">
+        <v>0.999247741225809</v>
+      </c>
+      <c r="R65" s="2" t="n">
+        <v>0.996461927890778</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="n">
         <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>197.357</v>
@@ -5310,10 +5895,10 @@
         <v>14</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L66" s="2" t="n">
         <v>-0.537563313466636</v>
@@ -5327,13 +5912,22 @@
       <c r="O66" s="2" t="n">
         <v>5.00294305070154E-010</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P66" s="2" t="n">
+        <v>0.999999999499706</v>
+      </c>
+      <c r="Q66" s="2" t="n">
+        <v>5.00294305070154E-010</v>
+      </c>
+      <c r="R66" s="2" t="n">
+        <v>0.00123516784515232</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="n">
         <v>65</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>201.42</v>
@@ -5357,10 +5951,10 @@
         <v>25</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L67" s="2" t="n">
         <v>-0.692922472856792</v>
@@ -5374,13 +5968,22 @@
       <c r="O67" s="2" t="n">
         <v>5.35492669222858E-012</v>
       </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P67" s="2" t="n">
+        <v>0.999999999994645</v>
+      </c>
+      <c r="Q67" s="2" t="n">
+        <v>5.35492669222858E-012</v>
+      </c>
+      <c r="R67" s="2" t="n">
+        <v>0.0017140384297818</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="n">
         <v>66</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>209.545</v>
@@ -5404,10 +6007,10 @@
         <v>1</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L68" s="2" t="n">
         <v>-0.101528946607119</v>
@@ -5421,13 +6024,22 @@
       <c r="O68" s="2" t="n">
         <v>0.522950471595613</v>
       </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P68" s="2" t="n">
+        <v>0.477049528404387</v>
+      </c>
+      <c r="Q68" s="2" t="n">
+        <v>0.522950471595613</v>
+      </c>
+      <c r="R68" s="2" t="n">
+        <v>0.983278930187225</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="n">
         <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>210.966</v>
@@ -5451,10 +6063,10 @@
         <v>26</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L69" s="2" t="n">
         <v>-0.881888544592944</v>
@@ -5468,13 +6080,22 @@
       <c r="O69" s="2" t="n">
         <v>3.00000089999998E-014</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P69" s="2" t="n">
+        <v>0.99999999999997</v>
+      </c>
+      <c r="Q69" s="2" t="n">
+        <v>3.00000089999998E-014</v>
+      </c>
+      <c r="R69" s="2" t="n">
+        <v>0.000348704314092174</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="n">
         <v>68</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>219.912</v>
@@ -5498,10 +6119,10 @@
         <v>8</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L70" s="2" t="n">
         <v>-0.54914793462327</v>
@@ -5515,13 +6136,22 @@
       <c r="O70" s="2" t="n">
         <v>3.58758002146323E-010</v>
       </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P70" s="2" t="n">
+        <v>0.999999999641242</v>
+      </c>
+      <c r="Q70" s="2" t="n">
+        <v>3.58758002146323E-010</v>
+      </c>
+      <c r="R70" s="2" t="n">
+        <v>0.00151885079685599</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="n">
         <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>222.289</v>
@@ -5545,10 +6175,10 @@
         <v>22</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L71" s="2" t="n">
         <v>-0.895981182317642</v>
@@ -5562,13 +6192,22 @@
       <c r="O71" s="2" t="n">
         <v>3.00000089999998E-014</v>
       </c>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P71" s="2" t="n">
+        <v>0.99999999999997</v>
+      </c>
+      <c r="Q71" s="2" t="n">
+        <v>3.00000089999998E-014</v>
+      </c>
+      <c r="R71" s="2" t="n">
+        <v>0.00588815985247493</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="n">
         <v>70</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>231.152</v>
@@ -5592,10 +6231,10 @@
         <v>1</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L72" s="2" t="n">
         <v>0.0662214020194221</v>
@@ -5609,13 +6248,22 @@
       <c r="O72" s="2" t="n">
         <v>0.927530957526033</v>
       </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P72" s="2" t="n">
+        <v>0.0724690424739676</v>
+      </c>
+      <c r="Q72" s="2" t="n">
+        <v>0.927530957526033</v>
+      </c>
+      <c r="R72" s="2" t="n">
+        <v>0.984810948371887</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="n">
         <v>71</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>232.473</v>
@@ -5639,10 +6287,10 @@
         <v>6</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="L73" s="2" t="n">
         <v>-0.382388346418906</v>
@@ -5656,13 +6304,22 @@
       <c r="O73" s="2" t="n">
         <v>1.89120599093739E-007</v>
       </c>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P73" s="2" t="n">
+        <v>0.999999810879401</v>
+      </c>
+      <c r="Q73" s="2" t="n">
+        <v>1.89120599093739E-007</v>
+      </c>
+      <c r="R73" s="2" t="n">
+        <v>0.14915919303894</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="n">
         <v>72</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>234.894</v>
@@ -5686,10 +6343,10 @@
         <v>1</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L74" s="2" t="n">
         <v>-0.24397839970569</v>
@@ -5703,13 +6360,22 @@
       <c r="O74" s="2" t="n">
         <v>0.0159435839407978</v>
       </c>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P74" s="2" t="n">
+        <v>0.984056416059202</v>
+      </c>
+      <c r="Q74" s="2" t="n">
+        <v>0.0159435839407978</v>
+      </c>
+      <c r="R74" s="2" t="n">
+        <v>0.5578453540802</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="n">
         <v>73</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>235.474</v>
@@ -5733,10 +6399,10 @@
         <v>10</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L75" s="2" t="n">
         <v>-0.60000268559001</v>
@@ -5750,13 +6416,22 @@
       <c r="O75" s="2" t="n">
         <v>1.52664426360712E-006</v>
       </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P75" s="2" t="n">
+        <v>0.999998473355736</v>
+      </c>
+      <c r="Q75" s="2" t="n">
+        <v>1.52664426360712E-006</v>
+      </c>
+      <c r="R75" s="2" t="n">
+        <v>0.975343108177185</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="n">
         <v>74</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>239.175</v>
@@ -5780,10 +6455,10 @@
         <v>16</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L76" s="2" t="n">
         <v>0.492499909688329</v>
@@ -5797,13 +6472,22 @@
       <c r="O76" s="2" t="n">
         <v>0.999856848024893</v>
       </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P76" s="2" t="n">
+        <v>0.000143151975106804</v>
+      </c>
+      <c r="Q76" s="2" t="n">
+        <v>0.999856848024893</v>
+      </c>
+      <c r="R76" s="2" t="n">
+        <v>0.996583700180054</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="n">
         <v>75</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>243.757</v>
@@ -5827,10 +6511,10 @@
         <v>9</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="L77" s="2" t="n">
         <v>0.48706292791585</v>
@@ -5844,13 +6528,22 @@
       <c r="O77" s="2" t="n">
         <v>0.999833221218096</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P77" s="2" t="n">
+        <v>0.0001667787819041</v>
+      </c>
+      <c r="Q77" s="2" t="n">
+        <v>0.999833221218096</v>
+      </c>
+      <c r="R77" s="2" t="n">
+        <v>0.979432940483093</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="n">
         <v>76</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>246.638</v>
@@ -5874,10 +6567,10 @@
         <v>14</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L78" s="2" t="n">
         <v>0.584773793446755</v>
@@ -5891,13 +6584,22 @@
       <c r="O78" s="2" t="n">
         <v>0.99996300854514</v>
       </c>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P78" s="2" t="n">
+        <v>3.69914548599847E-005</v>
+      </c>
+      <c r="Q78" s="2" t="n">
+        <v>0.99996300854514</v>
+      </c>
+      <c r="R78" s="2" t="n">
+        <v>0.997231662273407</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="n">
         <v>77</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>250.619</v>
@@ -5921,10 +6623,10 @@
         <v>13</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L79" s="2" t="n">
         <v>0.553733285519454</v>
@@ -5938,13 +6640,22 @@
       <c r="O79" s="2" t="n">
         <v>0.999940933735854</v>
       </c>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P79" s="2" t="n">
+        <v>5.90662641462686E-005</v>
+      </c>
+      <c r="Q79" s="2" t="n">
+        <v>0.999940933735854</v>
+      </c>
+      <c r="R79" s="2" t="n">
+        <v>0.996130585670471</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="n">
         <v>78</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>253.862</v>
@@ -5968,10 +6679,10 @@
         <v>5</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L80" s="2" t="n">
         <v>0.250945477211977</v>
@@ -5985,13 +6696,22 @@
       <c r="O80" s="2" t="n">
         <v>0.994012272198792</v>
       </c>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P80" s="2" t="n">
+        <v>0.0059877278012077</v>
+      </c>
+      <c r="Q80" s="2" t="n">
+        <v>0.994012272198792</v>
+      </c>
+      <c r="R80" s="2" t="n">
+        <v>0.960657477378845</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="n">
         <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>255.063</v>
@@ -6015,10 +6735,10 @@
         <v>24</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L81" s="2" t="n">
         <v>0.653411889408619</v>
@@ -6032,13 +6752,22 @@
       <c r="O81" s="2" t="n">
         <v>0.999986400527025</v>
       </c>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P81" s="2" t="n">
+        <v>1.35994729753605E-005</v>
+      </c>
+      <c r="Q81" s="2" t="n">
+        <v>0.999986400527025</v>
+      </c>
+      <c r="R81" s="2" t="n">
+        <v>0.997065007686615</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="n">
         <v>80</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>263.089</v>
@@ -6062,10 +6791,10 @@
         <v>8</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="L82" s="2" t="n">
         <v>0.508836717718397</v>
@@ -6079,13 +6808,22 @@
       <c r="O82" s="2" t="n">
         <v>0.999885685702386</v>
       </c>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P82" s="2" t="n">
+        <v>0.000114314297614577</v>
+      </c>
+      <c r="Q82" s="2" t="n">
+        <v>0.999885685702386</v>
+      </c>
+      <c r="R82" s="2" t="n">
+        <v>0.994180083274841</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="n">
         <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>266.112</v>
@@ -6109,10 +6847,10 @@
         <v>4</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L83" s="2" t="n">
         <v>-0.318085182908579</v>
@@ -6126,13 +6864,22 @@
       <c r="O83" s="2" t="n">
         <v>5.77709441410001E-007</v>
       </c>
-    </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P83" s="2" t="n">
+        <v>0.999999422290559</v>
+      </c>
+      <c r="Q83" s="2" t="n">
+        <v>5.77709441410001E-007</v>
+      </c>
+      <c r="R83" s="2" t="n">
+        <v>0.0666906535625458</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="n">
         <v>82</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>267.233</v>
@@ -6156,10 +6903,10 @@
         <v>10</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="L84" s="2" t="n">
         <v>-0.597618997297446</v>
@@ -6173,13 +6920,22 @@
       <c r="O84" s="2" t="n">
         <v>9.14878748552472E-011</v>
       </c>
-    </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P84" s="2" t="n">
+        <v>0.999999999908512</v>
+      </c>
+      <c r="Q84" s="2" t="n">
+        <v>9.14878748552472E-011</v>
+      </c>
+      <c r="R84" s="2" t="n">
+        <v>0.00909038353711367</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="n">
         <v>83</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>269.795</v>
@@ -6203,10 +6959,10 @@
         <v>5</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L85" s="2" t="n">
         <v>-0.379891883102979</v>
@@ -6220,13 +6976,22 @@
       <c r="O85" s="2" t="n">
         <v>5.54034384631627E-008</v>
       </c>
-    </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P85" s="2" t="n">
+        <v>0.999999944596562</v>
+      </c>
+      <c r="Q85" s="2" t="n">
+        <v>5.54034384631627E-008</v>
+      </c>
+      <c r="R85" s="2" t="n">
+        <v>0.00874518230557442</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="n">
         <v>84</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>271.556</v>
@@ -6250,10 +7015,10 @@
         <v>4</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L86" s="2" t="n">
         <v>0.0270656646169729</v>
@@ -6267,13 +7032,22 @@
       <c r="O86" s="2" t="n">
         <v>0.874418451374623</v>
       </c>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P86" s="2" t="n">
+        <v>0.125581548625377</v>
+      </c>
+      <c r="Q86" s="2" t="n">
+        <v>0.874418451374623</v>
+      </c>
+      <c r="R86" s="2" t="n">
+        <v>0.976265370845795</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="n">
         <v>85</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>272.557</v>
@@ -6297,10 +7071,10 @@
         <v>3</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L87" s="2" t="n">
         <v>0.257912813066079</v>
@@ -6314,13 +7088,22 @@
       <c r="O87" s="2" t="n">
         <v>0.994384837701713</v>
       </c>
-    </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P87" s="2" t="n">
+        <v>0.00561516229828712</v>
+      </c>
+      <c r="Q87" s="2" t="n">
+        <v>0.994384837701713</v>
+      </c>
+      <c r="R87" s="2" t="n">
+        <v>0.958226084709168</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="n">
         <v>86</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>274.055</v>
@@ -6344,10 +7127,10 @@
         <v>11</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="L88" s="2" t="n">
         <v>-0.124828574816082</v>
@@ -6361,13 +7144,22 @@
       <c r="O88" s="2" t="n">
         <v>0.0054521247093871</v>
       </c>
-    </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P88" s="2" t="n">
+        <v>0.994547875290613</v>
+      </c>
+      <c r="Q88" s="2" t="n">
+        <v>0.0054521247093871</v>
+      </c>
+      <c r="R88" s="2" t="n">
+        <v>0.00355188455432653</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="n">
         <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C89" s="2" t="n">
         <v>277.72</v>
@@ -6391,10 +7183,10 @@
         <v>11</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="L89" s="2" t="n">
         <v>0.447904593973954</v>
@@ -6408,13 +7200,22 @@
       <c r="O89" s="2" t="n">
         <v>0.999725342426182</v>
       </c>
-    </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P89" s="2" t="n">
+        <v>0.000274657573817854</v>
+      </c>
+      <c r="Q89" s="2" t="n">
+        <v>0.999725342426182</v>
+      </c>
+      <c r="R89" s="2" t="n">
+        <v>0.995945632457733</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="n">
         <v>88</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C90" s="2" t="n">
         <v>281.305</v>
@@ -6438,10 +7239,10 @@
         <v>7</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L90" s="2" t="n">
         <v>0.343680631918791</v>
@@ -6455,13 +7256,22 @@
       <c r="O90" s="2" t="n">
         <v>0.998738557279654</v>
       </c>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P90" s="2" t="n">
+        <v>0.00126144272034603</v>
+      </c>
+      <c r="Q90" s="2" t="n">
+        <v>0.998738557279654</v>
+      </c>
+      <c r="R90" s="2" t="n">
+        <v>0.996145606040955</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="n">
         <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C91" s="2" t="n">
         <v>283.067</v>
@@ -6485,10 +7295,10 @@
         <v>9</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L91" s="2" t="n">
         <v>0.392905586562684</v>
@@ -6502,13 +7312,22 @@
       <c r="O91" s="2" t="n">
         <v>0.99938514470333</v>
       </c>
-    </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P91" s="2" t="n">
+        <v>0.00061485529667023</v>
+      </c>
+      <c r="Q91" s="2" t="n">
+        <v>0.99938514470333</v>
+      </c>
+      <c r="R91" s="2" t="n">
+        <v>0.997177124023438</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="n">
         <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C92" s="2" t="n">
         <v>287.352</v>
@@ -6532,10 +7351,10 @@
         <v>5</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L92" s="2" t="n">
         <v>0.204654517467758</v>
@@ -6549,13 +7368,22 @@
       <c r="O92" s="2" t="n">
         <v>0.989441717205109</v>
       </c>
-    </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P92" s="2" t="n">
+        <v>0.0105582827948909</v>
+      </c>
+      <c r="Q92" s="2" t="n">
+        <v>0.989441717205109</v>
+      </c>
+      <c r="R92" s="2" t="n">
+        <v>0.979354023933411</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="n">
         <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C93" s="2" t="n">
         <v>288.654</v>
@@ -6579,10 +7407,10 @@
         <v>6</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L93" s="2" t="n">
         <v>-0.528573293746455</v>
@@ -6596,13 +7424,22 @@
       <c r="O93" s="2" t="n">
         <v>2.18845543572465E-009</v>
       </c>
-    </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P93" s="2" t="n">
+        <v>0.999999997811545</v>
+      </c>
+      <c r="Q93" s="2" t="n">
+        <v>2.18845543572465E-009</v>
+      </c>
+      <c r="R93" s="2" t="n">
+        <v>0.12570795416832</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="n">
         <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C94" s="2" t="n">
         <v>290.436</v>
@@ -6626,10 +7463,10 @@
         <v>4</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L94" s="2" t="n">
         <v>-0.0158042926561324</v>
@@ -6643,13 +7480,22 @@
       <c r="O94" s="2" t="n">
         <v>0.481937260130676</v>
       </c>
-    </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P94" s="2" t="n">
+        <v>0.518062739869324</v>
+      </c>
+      <c r="Q94" s="2" t="n">
+        <v>0.481937260130676</v>
+      </c>
+      <c r="R94" s="2" t="n">
+        <v>0.716516256332398</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="n">
         <v>93</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C95" s="2" t="n">
         <v>292.038</v>
@@ -6673,10 +7519,10 @@
         <v>23</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="L95" s="2" t="n">
         <v>-0.721705823323661</v>
@@ -6690,13 +7536,22 @@
       <c r="O95" s="2" t="n">
         <v>6.63228736582783E-012</v>
       </c>
-    </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P95" s="2" t="n">
+        <v>0.999999999993368</v>
+      </c>
+      <c r="Q95" s="2" t="n">
+        <v>6.63228736582783E-012</v>
+      </c>
+      <c r="R95" s="2" t="n">
+        <v>0.11981949955225</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="n">
         <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C96" s="2" t="n">
         <v>299.662</v>
@@ -6720,10 +7575,10 @@
         <v>17</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="L96" s="2" t="n">
         <v>-0.735640398100014</v>
@@ -6737,13 +7592,22 @@
       <c r="O96" s="2" t="n">
         <v>2.23855951096143E-012</v>
       </c>
-    </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P96" s="2" t="n">
+        <v>0.999999999997761</v>
+      </c>
+      <c r="Q96" s="2" t="n">
+        <v>2.23855951096143E-012</v>
+      </c>
+      <c r="R96" s="2" t="n">
+        <v>0.0381782725453377</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="n">
         <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C97" s="2" t="n">
         <v>304.745</v>
@@ -6767,10 +7631,10 @@
         <v>7</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="L97" s="2" t="n">
         <v>0.300537515431833</v>
@@ -6784,13 +7648,22 @@
       <c r="O97" s="2" t="n">
         <v>0.997333083958746</v>
       </c>
-    </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P97" s="2" t="n">
+        <v>0.00266691604125436</v>
+      </c>
+      <c r="Q97" s="2" t="n">
+        <v>0.997333083958746</v>
+      </c>
+      <c r="R97" s="2" t="n">
+        <v>0.978631138801575</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="n">
         <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C98" s="2" t="n">
         <v>307.406</v>
@@ -6814,10 +7687,10 @@
         <v>8</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="L98" s="2" t="n">
         <v>0.317841060501945</v>
@@ -6831,13 +7704,22 @@
       <c r="O98" s="2" t="n">
         <v>0.997884627249793</v>
       </c>
-    </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P98" s="2" t="n">
+        <v>0.00211537275020669</v>
+      </c>
+      <c r="Q98" s="2" t="n">
+        <v>0.997884627249793</v>
+      </c>
+      <c r="R98" s="2" t="n">
+        <v>0.9716717004776</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="n">
         <v>97</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C99" s="2" t="n">
         <v>308.847</v>
@@ -6861,10 +7743,10 @@
         <v>2</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="L99" s="2" t="n">
         <v>-0.0609542668046292</v>
@@ -6878,13 +7760,22 @@
       <c r="O99" s="2" t="n">
         <v>0.0138006112242869</v>
       </c>
-    </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P99" s="2" t="n">
+        <v>0.986199388775713</v>
+      </c>
+      <c r="Q99" s="2" t="n">
+        <v>0.0138006112242869</v>
+      </c>
+      <c r="R99" s="2" t="n">
+        <v>0.00494368933141232</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="n">
         <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C100" s="2" t="n">
         <v>309.547</v>
@@ -6908,10 +7799,10 @@
         <v>1</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="L100" s="2" t="n">
         <v>-0.204611464355976</v>
@@ -6925,13 +7816,22 @@
       <c r="O100" s="2" t="n">
         <v>9.70902458060763E-006</v>
       </c>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P100" s="2" t="n">
+        <v>0.999990290975419</v>
+      </c>
+      <c r="Q100" s="2" t="n">
+        <v>9.70902458060763E-006</v>
+      </c>
+      <c r="R100" s="2" t="n">
+        <v>0.01691491343081</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="n">
         <v>99</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C101" s="2" t="n">
         <v>310.227</v>
@@ -6955,10 +7855,10 @@
         <v>1</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L101" s="2" t="n">
         <v>0.0153912458692908</v>
@@ -6972,13 +7872,22 @@
       <c r="O101" s="2" t="n">
         <v>0.355222267325289</v>
       </c>
-    </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P101" s="2" t="n">
+        <v>0.644777732674711</v>
+      </c>
+      <c r="Q101" s="2" t="n">
+        <v>0.355222267325289</v>
+      </c>
+      <c r="R101" s="2" t="n">
+        <v>0.580827653408051</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="n">
         <v>100</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C102" s="2" t="n">
         <v>311.248</v>
@@ -7002,10 +7911,10 @@
         <v>2</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="L102" s="2" t="n">
         <v>-0.260542076335789</v>
@@ -7019,13 +7928,22 @@
       <c r="O102" s="2" t="n">
         <v>1.94294856136472E-006</v>
       </c>
-    </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P102" s="2" t="n">
+        <v>0.999998057051439</v>
+      </c>
+      <c r="Q102" s="2" t="n">
+        <v>1.94294856136472E-006</v>
+      </c>
+      <c r="R102" s="2" t="n">
+        <v>0.0210043676197529</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="n">
         <v>101</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C103" s="2" t="n">
         <v>312.108</v>
@@ -7049,10 +7967,10 @@
         <v>4</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="L103" s="2" t="n">
         <v>-0.282521028269994</v>
@@ -7066,13 +7984,22 @@
       <c r="O103" s="2" t="n">
         <v>0.0279844241850163</v>
       </c>
-    </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P103" s="2" t="n">
+        <v>0.972015575814984</v>
+      </c>
+      <c r="Q103" s="2" t="n">
+        <v>0.0279844241850163</v>
+      </c>
+      <c r="R103" s="2" t="n">
+        <v>0.792464256286621</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="n">
         <v>102</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C104" s="2" t="n">
         <v>313.389</v>
@@ -7096,10 +8023,10 @@
         <v>1</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="L104" s="2" t="n">
         <v>-0.081552091332763</v>
@@ -7113,13 +8040,22 @@
       <c r="O104" s="2" t="n">
         <v>0.0180134950504965</v>
       </c>
-    </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P104" s="2" t="n">
+        <v>0.981986504949504</v>
+      </c>
+      <c r="Q104" s="2" t="n">
+        <v>0.0180134950504965</v>
+      </c>
+      <c r="R104" s="2" t="n">
+        <v>0.130174800753593</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="n">
         <v>103</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C105" s="2" t="n">
         <v>314.429</v>
@@ -7143,10 +8079,10 @@
         <v>6</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="L105" s="2" t="n">
         <v>0.439732103594153</v>
@@ -7160,13 +8096,22 @@
       <c r="O105" s="2" t="n">
         <v>0.999587369218567</v>
       </c>
-    </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P105" s="2" t="n">
+        <v>0.000412630781433345</v>
+      </c>
+      <c r="Q105" s="2" t="n">
+        <v>0.999587369218567</v>
+      </c>
+      <c r="R105" s="2" t="n">
+        <v>0.952219903469086</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="n">
         <v>104</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C106" s="2" t="n">
         <v>316.831</v>
@@ -7190,10 +8135,10 @@
         <v>5</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="L106" s="2" t="n">
         <v>0.283937769133269</v>
@@ -7207,13 +8152,22 @@
       <c r="O106" s="2" t="n">
         <v>0.996186514272072</v>
       </c>
-    </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P106" s="2" t="n">
+        <v>0.00381348572792847</v>
+      </c>
+      <c r="Q106" s="2" t="n">
+        <v>0.996186514272072</v>
+      </c>
+      <c r="R106" s="2" t="n">
+        <v>0.960137486457825</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="n">
         <v>105</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C107" s="2" t="n">
         <v>319.808</v>
@@ -7237,10 +8191,10 @@
         <v>15</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="L107" s="2" t="n">
         <v>0.499500402327015</v>
@@ -7254,13 +8208,22 @@
       <c r="O107" s="2" t="n">
         <v>0.999859093083022</v>
       </c>
-    </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P107" s="2" t="n">
+        <v>0.000140906916977614</v>
+      </c>
+      <c r="Q107" s="2" t="n">
+        <v>0.999859093083022</v>
+      </c>
+      <c r="R107" s="2" t="n">
+        <v>0.980356216430664</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="n">
         <v>106</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C108" s="2" t="n">
         <v>324.312</v>
@@ -7284,10 +8247,10 @@
         <v>20</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L108" s="2" t="n">
         <v>0.513150771336732</v>
@@ -7301,13 +8264,22 @@
       <c r="O108" s="2" t="n">
         <v>0.999886883402733</v>
       </c>
-    </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P108" s="2" t="n">
+        <v>0.000113116597267239</v>
+      </c>
+      <c r="Q108" s="2" t="n">
+        <v>0.999886883402733</v>
+      </c>
+      <c r="R108" s="2" t="n">
+        <v>0.981595158576965</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="n">
         <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C109" s="2" t="n">
         <v>331.018</v>
@@ -7331,10 +8303,10 @@
         <v>7</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="L109" s="2" t="n">
         <v>-0.416925344360219</v>
@@ -7348,13 +8320,22 @@
       <c r="O109" s="2" t="n">
         <v>1.72337574523176E-008</v>
       </c>
-    </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P109" s="2" t="n">
+        <v>0.999999982766243</v>
+      </c>
+      <c r="Q109" s="2" t="n">
+        <v>1.72337574523176E-008</v>
+      </c>
+      <c r="R109" s="2" t="n">
+        <v>0.0023504828568548</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="n">
         <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C110" s="2" t="n">
         <v>334.141</v>
@@ -7378,10 +8359,10 @@
         <v>13</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="L110" s="2" t="n">
         <v>-0.311237196357234</v>
@@ -7395,13 +8376,22 @@
       <c r="O110" s="2" t="n">
         <v>3.76226268987603E-007</v>
       </c>
-    </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P110" s="2" t="n">
+        <v>0.999999623773731</v>
+      </c>
+      <c r="Q110" s="2" t="n">
+        <v>3.76226268987603E-007</v>
+      </c>
+      <c r="R110" s="2" t="n">
+        <v>0.000715232454240322</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="n">
         <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C111" s="2" t="n">
         <v>338.465</v>
@@ -7425,10 +8415,10 @@
         <v>8</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="L111" s="2" t="n">
         <v>0.0769334599131113</v>
@@ -7442,13 +8432,22 @@
       <c r="O111" s="2" t="n">
         <v>0.939446350612042</v>
       </c>
-    </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P111" s="2" t="n">
+        <v>0.0605536493879583</v>
+      </c>
+      <c r="Q111" s="2" t="n">
+        <v>0.939446350612042</v>
+      </c>
+      <c r="R111" s="2" t="n">
+        <v>0.9891397356987</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="n">
         <v>110</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C112" s="2" t="n">
         <v>344.463</v>
@@ -7472,10 +8471,10 @@
         <v>44</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="L112" s="2" t="n">
         <v>0.666107691848034</v>
@@ -7489,13 +8488,22 @@
       <c r="O112" s="2" t="n">
         <v>0.999988644634664</v>
       </c>
-    </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P112" s="2" t="n">
+        <v>1.13553653358159E-005</v>
+      </c>
+      <c r="Q112" s="2" t="n">
+        <v>0.999988644634664</v>
+      </c>
+      <c r="R112" s="2" t="n">
+        <v>0.994998335838318</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="n">
         <v>111</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C113" s="2" t="n">
         <v>358.592</v>
@@ -7519,10 +8527,10 @@
         <v>20</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="L113" s="2" t="n">
         <v>0.517637953807683</v>
@@ -7536,13 +8544,22 @@
       <c r="O113" s="2" t="n">
         <v>0.999902242137321</v>
       </c>
-    </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P113" s="2" t="n">
+        <v>9.77578626794042E-005</v>
+      </c>
+      <c r="Q113" s="2" t="n">
+        <v>0.999902242137321</v>
+      </c>
+      <c r="R113" s="2" t="n">
+        <v>0.998798131942749</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="n">
         <v>112</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C114" s="2" t="n">
         <v>365.056</v>
@@ -7566,10 +8583,10 @@
         <v>4</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="L114" s="2" t="n">
         <v>0.262955792138961</v>
@@ -7583,13 +8600,22 @@
       <c r="O114" s="2" t="n">
         <v>0.995885808742932</v>
       </c>
-    </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P114" s="2" t="n">
+        <v>0.00411419125706825</v>
+      </c>
+      <c r="Q114" s="2" t="n">
+        <v>0.995885808742932</v>
+      </c>
+      <c r="R114" s="2" t="n">
+        <v>0.996983945369721</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="n">
         <v>113</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C115" s="2" t="n">
         <v>366.805</v>
@@ -7613,10 +8639,10 @@
         <v>5</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="L115" s="2" t="n">
         <v>0.361050462342753</v>
@@ -7630,13 +8656,22 @@
       <c r="O115" s="2" t="n">
         <v>0.9990273060185</v>
       </c>
-    </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P115" s="2" t="n">
+        <v>0.00097269398149973</v>
+      </c>
+      <c r="Q115" s="2" t="n">
+        <v>0.9990273060185</v>
+      </c>
+      <c r="R115" s="2" t="n">
+        <v>0.997053623199463</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="n">
         <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C116" s="2" t="n">
         <v>368.106</v>
@@ -7660,10 +8695,10 @@
         <v>7</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="L116" s="2" t="n">
         <v>0.407583978011528</v>
@@ -7677,13 +8712,22 @@
       <c r="O116" s="2" t="n">
         <v>0.999506458001356</v>
       </c>
-    </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P116" s="2" t="n">
+        <v>0.000493541998643725</v>
+      </c>
+      <c r="Q116" s="2" t="n">
+        <v>0.999506458001356</v>
+      </c>
+      <c r="R116" s="2" t="n">
+        <v>0.997676908969879</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="n">
         <v>115</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C117" s="2" t="n">
         <v>370.328</v>
@@ -7707,10 +8751,10 @@
         <v>15</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="L117" s="2" t="n">
         <v>0.568106605246858</v>
@@ -7724,13 +8768,22 @@
       <c r="O117" s="2" t="n">
         <v>0.999953174123695</v>
       </c>
-    </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P117" s="2" t="n">
+        <v>4.68258763054363E-005</v>
+      </c>
+      <c r="Q117" s="2" t="n">
+        <v>0.999953174123695</v>
+      </c>
+      <c r="R117" s="2" t="n">
+        <v>0.998042941093445</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="n">
         <v>116</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C118" s="2" t="n">
         <v>376.913</v>
@@ -7754,10 +8807,10 @@
         <v>1</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="L118" s="2" t="n">
         <v>0.0708518505837089</v>
@@ -7771,13 +8824,22 @@
       <c r="O118" s="2" t="n">
         <v>0.0906601740377747</v>
       </c>
-    </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P118" s="2" t="n">
+        <v>0.909339825962225</v>
+      </c>
+      <c r="Q118" s="2" t="n">
+        <v>0.0906601740377747</v>
+      </c>
+      <c r="R118" s="2" t="n">
+        <v>0.0104890922084451</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="n">
         <v>117</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C119" s="2" t="n">
         <v>377.814</v>
@@ -7801,10 +8863,10 @@
         <v>29</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="L119" s="2" t="n">
         <v>0.743419178706657</v>
@@ -7818,13 +8880,22 @@
       <c r="O119" s="2" t="n">
         <v>0.999996366808667</v>
       </c>
-    </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P119" s="2" t="n">
+        <v>3.63319133269172E-006</v>
+      </c>
+      <c r="Q119" s="2" t="n">
+        <v>0.999996366808667</v>
+      </c>
+      <c r="R119" s="2" t="n">
+        <v>0.996960341930389</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="n">
         <v>118</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C120" s="2" t="n">
         <v>391.665</v>
@@ -7848,10 +8919,10 @@
         <v>2</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="L120" s="2" t="n">
         <v>0.0198705433213727</v>
@@ -7865,13 +8936,22 @@
       <c r="O120" s="2" t="n">
         <v>0.769042960757621</v>
       </c>
-    </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P120" s="2" t="n">
+        <v>0.230957039242379</v>
+      </c>
+      <c r="Q120" s="2" t="n">
+        <v>0.769042960757621</v>
+      </c>
+      <c r="R120" s="2" t="n">
+        <v>0.830181479454041</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="n">
         <v>119</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C121" s="2" t="n">
         <v>392.366</v>
@@ -7895,10 +8975,10 @@
         <v>7</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="L121" s="2" t="n">
         <v>0.388994727405689</v>
@@ -7912,13 +8992,22 @@
       <c r="O121" s="2" t="n">
         <v>0.999196664203979</v>
       </c>
-    </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P121" s="2" t="n">
+        <v>0.000803335796020592</v>
+      </c>
+      <c r="Q121" s="2" t="n">
+        <v>0.999196664203979</v>
+      </c>
+      <c r="R121" s="2" t="n">
+        <v>0.95983749628067</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="n">
         <v>120</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C122" s="2" t="n">
         <v>394.825</v>
@@ -7942,10 +9031,10 @@
         <v>4</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="L122" s="2" t="n">
         <v>0.298169678530063</v>
@@ -7959,13 +9048,22 @@
       <c r="O122" s="2" t="n">
         <v>0.995785428821816</v>
       </c>
-    </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P122" s="2" t="n">
+        <v>0.00421457117818365</v>
+      </c>
+      <c r="Q122" s="2" t="n">
+        <v>0.995785428821816</v>
+      </c>
+      <c r="R122" s="2" t="n">
+        <v>0.906487703323364</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="n">
         <v>121</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C123" s="2" t="n">
         <v>409.188</v>
@@ -7989,10 +9087,10 @@
         <v>7</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="L123" s="2" t="n">
         <v>-0.613145639229036</v>
@@ -8006,13 +9104,22 @@
       <c r="O123" s="2" t="n">
         <v>3.75375623953648E-009</v>
       </c>
-    </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P123" s="2" t="n">
+        <v>0.999999996246244</v>
+      </c>
+      <c r="Q123" s="2" t="n">
+        <v>3.75375623953648E-009</v>
+      </c>
+      <c r="R123" s="2" t="n">
+        <v>0.413477152585983</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="n">
         <v>122</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C124" s="2" t="n">
         <v>411.95</v>
@@ -8036,10 +9143,10 @@
         <v>8</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="K124" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="L124" s="2" t="n">
         <v>-0.243818608772505</v>
@@ -8053,13 +9160,22 @@
       <c r="O124" s="2" t="n">
         <v>0.0245202712250624</v>
       </c>
-    </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P124" s="2" t="n">
+        <v>0.975479728774938</v>
+      </c>
+      <c r="Q124" s="2" t="n">
+        <v>0.0245202712250624</v>
+      </c>
+      <c r="R124" s="2" t="n">
+        <v>0.663450956344605</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="n">
         <v>123</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C125" s="2" t="n">
         <v>415.231</v>
@@ -8083,10 +9199,10 @@
         <v>8</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="L125" s="2" t="n">
         <v>-0.407512638048689</v>
@@ -8100,13 +9216,22 @@
       <c r="O125" s="2" t="n">
         <v>2.24943257417339E-008</v>
       </c>
-    </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P125" s="2" t="n">
+        <v>0.999999977505674</v>
+      </c>
+      <c r="Q125" s="2" t="n">
+        <v>2.24943257417339E-008</v>
+      </c>
+      <c r="R125" s="2" t="n">
+        <v>0.00139395019505173</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="n">
         <v>124</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C126" s="2" t="n">
         <v>417.812</v>
@@ -8130,10 +9255,10 @@
         <v>1</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="L126" s="2" t="n">
         <v>0.159898891376949</v>
@@ -8147,13 +9272,22 @@
       <c r="O126" s="2" t="n">
         <v>0.980797668406091</v>
       </c>
-    </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P126" s="2" t="n">
+        <v>0.0192023315939087</v>
+      </c>
+      <c r="Q126" s="2" t="n">
+        <v>0.980797668406091</v>
+      </c>
+      <c r="R126" s="2" t="n">
+        <v>0.988798797130585</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="n">
         <v>125</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C127" s="2" t="n">
         <v>418.353</v>
@@ -8177,10 +9311,10 @@
         <v>10</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="K127" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="L127" s="2" t="n">
         <v>0.496785646093394</v>
@@ -8194,13 +9328,22 @@
       <c r="O127" s="2" t="n">
         <v>0.999862384801769</v>
       </c>
-    </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P127" s="2" t="n">
+        <v>0.000137615198230694</v>
+      </c>
+      <c r="Q127" s="2" t="n">
+        <v>0.999862384801769</v>
+      </c>
+      <c r="R127" s="2" t="n">
+        <v>0.994202554225922</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="n">
         <v>126</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C128" s="2" t="n">
         <v>420.894</v>
@@ -8224,10 +9367,10 @@
         <v>18</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="L128" s="2" t="n">
         <v>0.612223423056429</v>
@@ -8241,13 +9384,22 @@
       <c r="O128" s="2" t="n">
         <v>0.999975188711715</v>
       </c>
-    </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P128" s="2" t="n">
+        <v>2.48112882849902E-005</v>
+      </c>
+      <c r="Q128" s="2" t="n">
+        <v>0.999975188711715</v>
+      </c>
+      <c r="R128" s="2" t="n">
+        <v>0.997053623199463</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="n">
         <v>127</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C129" s="2" t="n">
         <v>426.297</v>
@@ -8271,10 +9423,10 @@
         <v>6</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="K129" s="2" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="L129" s="2" t="n">
         <v>0.217728370124056</v>
@@ -8288,13 +9440,22 @@
       <c r="O129" s="2" t="n">
         <v>0.991906578181409</v>
       </c>
-    </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P129" s="2" t="n">
+        <v>0.00809342181859133</v>
+      </c>
+      <c r="Q129" s="2" t="n">
+        <v>0.991906578181409</v>
+      </c>
+      <c r="R129" s="2" t="n">
+        <v>0.993586778640747</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="n">
         <v>128</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C130" s="2" t="n">
         <v>427.537</v>
@@ -8318,10 +9479,10 @@
         <v>8</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="L130" s="2" t="n">
         <v>0.448229606796898</v>
@@ -8335,13 +9496,22 @@
       <c r="O130" s="2" t="n">
         <v>0.999728284882518</v>
       </c>
-    </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P130" s="2" t="n">
+        <v>0.00027171511748238</v>
+      </c>
+      <c r="Q130" s="2" t="n">
+        <v>0.999728284882518</v>
+      </c>
+      <c r="R130" s="2" t="n">
+        <v>0.997703850269318</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="n">
         <v>129</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C131" s="2" t="n">
         <v>430.359</v>
@@ -8365,10 +9535,10 @@
         <v>10</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="L131" s="2" t="n">
         <v>0.539273677398655</v>
@@ -8382,13 +9552,22 @@
       <c r="O131" s="2" t="n">
         <v>0.999928201033925</v>
       </c>
-    </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P131" s="2" t="n">
+        <v>7.17989660749902E-005</v>
+      </c>
+      <c r="Q131" s="2" t="n">
+        <v>0.999928201033925</v>
+      </c>
+      <c r="R131" s="2" t="n">
+        <v>0.997398972511292</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="n">
         <v>130</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C132" s="2" t="n">
         <v>434.341</v>
@@ -8412,10 +9591,10 @@
         <v>7</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="L132" s="2" t="n">
         <v>0.345089061241889</v>
@@ -8429,13 +9608,22 @@
       <c r="O132" s="2" t="n">
         <v>0.998775449808393</v>
       </c>
-    </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P132" s="2" t="n">
+        <v>0.00122455019160673</v>
+      </c>
+      <c r="Q132" s="2" t="n">
+        <v>0.998775449808393</v>
+      </c>
+      <c r="R132" s="2" t="n">
+        <v>0.998539209365845</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="n">
         <v>131</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C133" s="2" t="n">
         <v>437.599</v>
@@ -8459,10 +9647,10 @@
         <v>22</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="K133" s="2" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="L133" s="2" t="n">
         <v>0.598034466985594</v>
@@ -8476,13 +9664,22 @@
       <c r="O133" s="2" t="n">
         <v>0.999969439185573</v>
       </c>
-    </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P133" s="2" t="n">
+        <v>3.0560814427192E-005</v>
+      </c>
+      <c r="Q133" s="2" t="n">
+        <v>0.999969439185573</v>
+      </c>
+      <c r="R133" s="2" t="n">
+        <v>0.996662557125092</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="n">
         <v>132</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C134" s="2" t="n">
         <v>443.961</v>
@@ -8506,10 +9703,10 @@
         <v>12</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="K134" s="2" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="L134" s="2" t="n">
         <v>-0.582239167050857</v>
@@ -8523,13 +9720,22 @@
       <c r="O134" s="2" t="n">
         <v>1.3474573982651E-010</v>
       </c>
-    </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P134" s="2" t="n">
+        <v>0.999999999865254</v>
+      </c>
+      <c r="Q134" s="2" t="n">
+        <v>1.3474573982651E-010</v>
+      </c>
+      <c r="R134" s="2" t="n">
+        <v>0.000614227203186601</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="n">
         <v>133</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C135" s="2" t="n">
         <v>448.662</v>
@@ -8553,10 +9759,10 @@
         <v>5</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="K135" s="2" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="L135" s="2" t="n">
         <v>0.252659705123718</v>
@@ -8570,13 +9776,22 @@
       <c r="O135" s="2" t="n">
         <v>0.994664229730672</v>
       </c>
-    </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P135" s="2" t="n">
+        <v>0.00533577026932764</v>
+      </c>
+      <c r="Q135" s="2" t="n">
+        <v>0.994664229730672</v>
+      </c>
+      <c r="R135" s="2" t="n">
+        <v>0.977628529071808</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="n">
         <v>134</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C136" s="2" t="n">
         <v>450.143</v>
@@ -8600,10 +9815,10 @@
         <v>24</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="K136" s="2" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="L136" s="2" t="n">
         <v>0.608833903309741</v>
@@ -8617,13 +9832,22 @@
       <c r="O136" s="2" t="n">
         <v>0.999974023931464</v>
       </c>
-    </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P136" s="2" t="n">
+        <v>2.59760685358066E-005</v>
+      </c>
+      <c r="Q136" s="2" t="n">
+        <v>0.999974023931464</v>
+      </c>
+      <c r="R136" s="2" t="n">
+        <v>0.997263789176941</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="n">
         <v>135</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C137" s="2" t="n">
         <v>456.925</v>
@@ -8647,10 +9871,10 @@
         <v>5</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="L137" s="2" t="n">
         <v>0.237877904379101</v>
@@ -8664,13 +9888,22 @@
       <c r="O137" s="2" t="n">
         <v>0.991766358941808</v>
       </c>
-    </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P137" s="2" t="n">
+        <v>0.00823364105819242</v>
+      </c>
+      <c r="Q137" s="2" t="n">
+        <v>0.991766358941808</v>
+      </c>
+      <c r="R137" s="2" t="n">
+        <v>0.937095820903778</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="n">
         <v>136</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C138" s="2" t="n">
         <v>458.665</v>
@@ -8694,10 +9927,10 @@
         <v>2</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="K138" s="2" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="L138" s="2" t="n">
         <v>-0.134142777143031</v>
@@ -8711,13 +9944,22 @@
       <c r="O138" s="2" t="n">
         <v>0.00476262895890945</v>
       </c>
-    </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P138" s="2" t="n">
+        <v>0.995237371041091</v>
+      </c>
+      <c r="Q138" s="2" t="n">
+        <v>0.00476262895890945</v>
+      </c>
+      <c r="R138" s="2" t="n">
+        <v>0.00257086800411344</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="n">
         <v>137</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C139" s="2" t="n">
         <v>459.866</v>
@@ -8741,10 +9983,10 @@
         <v>27</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="K139" s="2" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="L139" s="2" t="n">
         <v>0.566687491721601</v>
@@ -8758,13 +10000,22 @@
       <c r="O139" s="2" t="n">
         <v>0.999944374947105</v>
       </c>
-    </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P139" s="2" t="n">
+        <v>5.56250528948638E-005</v>
+      </c>
+      <c r="Q139" s="2" t="n">
+        <v>0.999944374947105</v>
+      </c>
+      <c r="R139" s="2" t="n">
+        <v>0.968141138553619</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="n">
         <v>138</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C140" s="2" t="n">
         <v>467.145</v>
@@ -8788,10 +10039,10 @@
         <v>8</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="K140" s="2" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="L140" s="2" t="n">
         <v>-0.549699626445639</v>
@@ -8805,13 +10056,22 @@
       <c r="O140" s="2" t="n">
         <v>4.98384046315253E-006</v>
       </c>
-    </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P140" s="2" t="n">
+        <v>0.999995016159537</v>
+      </c>
+      <c r="Q140" s="2" t="n">
+        <v>4.98384046315253E-006</v>
+      </c>
+      <c r="R140" s="2" t="n">
+        <v>0.950869202613831</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="n">
         <v>139</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C141" s="2" t="n">
         <v>469.647</v>
@@ -8835,10 +10095,10 @@
         <v>1</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K141" s="2" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="L141" s="2" t="n">
         <v>0.00665411290704908</v>
@@ -8852,13 +10112,22 @@
       <c r="O141" s="2" t="n">
         <v>0.0531164546831835</v>
       </c>
-    </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P141" s="2" t="n">
+        <v>0.946883545316816</v>
+      </c>
+      <c r="Q141" s="2" t="n">
+        <v>0.0531164546831835</v>
+      </c>
+      <c r="R141" s="2" t="n">
+        <v>0.0766838043928146</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="2" t="n">
         <v>140</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C142" s="2" t="n">
         <v>470.628</v>
@@ -8882,10 +10151,10 @@
         <v>7</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="K142" s="2" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="L142" s="2" t="n">
         <v>-0.438780695444987</v>
@@ -8899,13 +10168,22 @@
       <c r="O142" s="2" t="n">
         <v>4.40416152125936E-007</v>
       </c>
-    </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P142" s="2" t="n">
+        <v>0.999999559583848</v>
+      </c>
+      <c r="Q142" s="2" t="n">
+        <v>4.40416152125936E-007</v>
+      </c>
+      <c r="R142" s="2" t="n">
+        <v>0.429848164319992</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="n">
         <v>141</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C143" s="2" t="n">
         <v>473.191</v>
@@ -8929,10 +10207,10 @@
         <v>13</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="K143" s="2" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="L143" s="2" t="n">
         <v>0.529587654364599</v>
@@ -8946,13 +10224,22 @@
       <c r="O143" s="2" t="n">
         <v>0.998749133978971</v>
       </c>
-    </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P143" s="2" t="n">
+        <v>0.00125086602102964</v>
+      </c>
+      <c r="Q143" s="2" t="n">
+        <v>0.998749133978971</v>
+      </c>
+      <c r="R143" s="2" t="n">
+        <v>0.44667574763298</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="n">
         <v>142</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C144" s="2" t="n">
         <v>476.514</v>
@@ -8976,10 +10263,10 @@
         <v>1</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K144" s="2" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="L144" s="2" t="n">
         <v>0.0980867872380235</v>
@@ -8993,13 +10280,22 @@
       <c r="O144" s="2" t="n">
         <v>0.269085686733125</v>
       </c>
-    </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P144" s="2" t="n">
+        <v>0.730914313266875</v>
+      </c>
+      <c r="Q144" s="2" t="n">
+        <v>0.269085686733125</v>
+      </c>
+      <c r="R144" s="2" t="n">
+        <v>0.184179827570915</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="n">
         <v>143</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C145" s="2" t="n">
         <v>477.254</v>
@@ -9023,10 +10319,10 @@
         <v>7</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="K145" s="2" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="L145" s="2" t="n">
         <v>0.555679556106475</v>
@@ -9040,13 +10336,22 @@
       <c r="O145" s="2" t="n">
         <v>0.999911466780407</v>
       </c>
-    </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P145" s="2" t="n">
+        <v>8.8533219593251E-005</v>
+      </c>
+      <c r="Q145" s="2" t="n">
+        <v>0.999911466780407</v>
+      </c>
+      <c r="R145" s="2" t="n">
+        <v>0.923867523670197</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="2" t="n">
         <v>144</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C146" s="2" t="n">
         <v>479.717</v>
@@ -9070,10 +10375,10 @@
         <v>10</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="K146" s="2" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="L146" s="2" t="n">
         <v>0.547012550459574</v>
@@ -9087,13 +10392,22 @@
       <c r="O146" s="2" t="n">
         <v>0.999885383429385</v>
       </c>
-    </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P146" s="2" t="n">
+        <v>0.000114616570615431</v>
+      </c>
+      <c r="Q146" s="2" t="n">
+        <v>0.999885383429385</v>
+      </c>
+      <c r="R146" s="2" t="n">
+        <v>0.897155940532684</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="2" t="n">
         <v>145</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C147" s="2" t="n">
         <v>484.181</v>
@@ -9117,10 +10431,10 @@
         <v>7</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="K147" s="2" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="L147" s="2" t="n">
         <v>-0.555992114214606</v>
@@ -9134,13 +10448,22 @@
       <c r="O147" s="2" t="n">
         <v>3.82630081301499E-010</v>
       </c>
-    </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P147" s="2" t="n">
+        <v>0.99999999961737</v>
+      </c>
+      <c r="Q147" s="2" t="n">
+        <v>3.82630081301499E-010</v>
+      </c>
+      <c r="R147" s="2" t="n">
+        <v>0.029760092496872</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="n">
         <v>146</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C148" s="2" t="n">
         <v>486.222</v>
@@ -9164,10 +10487,10 @@
         <v>13</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="K148" s="2" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="L148" s="2" t="n">
         <v>0.616779652060271</v>
@@ -9181,13 +10504,22 @@
       <c r="O148" s="2" t="n">
         <v>0.999626922303471</v>
       </c>
-    </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P148" s="2" t="n">
+        <v>0.000373077696528744</v>
+      </c>
+      <c r="Q148" s="2" t="n">
+        <v>0.999626922303471</v>
+      </c>
+      <c r="R148" s="2" t="n">
+        <v>0.403743207454681</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="n">
         <v>147</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C149" s="2" t="n">
         <v>491.307</v>
@@ -9211,10 +10543,10 @@
         <v>2</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="K149" s="2" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="L149" s="2" t="n">
         <v>-0.314693982590254</v>
@@ -9228,13 +10560,22 @@
       <c r="O149" s="2" t="n">
         <v>5.60414487899776E-006</v>
       </c>
-    </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P149" s="2" t="n">
+        <v>0.999994395855121</v>
+      </c>
+      <c r="Q149" s="2" t="n">
+        <v>5.60414487899776E-006</v>
+      </c>
+      <c r="R149" s="2" t="n">
+        <v>0.304145008325577</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="n">
         <v>148</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C150" s="2" t="n">
         <v>492.809</v>
@@ -9258,10 +10599,10 @@
         <v>24</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="K150" s="2" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="L150" s="2" t="n">
         <v>0.614177155970193</v>
@@ -9275,13 +10616,22 @@
       <c r="O150" s="2" t="n">
         <v>0.999973592682362</v>
       </c>
-    </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P150" s="2" t="n">
+        <v>2.64073176380427E-005</v>
+      </c>
+      <c r="Q150" s="2" t="n">
+        <v>0.999973592682362</v>
+      </c>
+      <c r="R150" s="2" t="n">
+        <v>0.982690870761871</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="2" t="n">
         <v>149</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C151" s="2" t="n">
         <v>499.851</v>
@@ -9305,10 +10655,10 @@
         <v>21</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="K151" s="2" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="L151" s="2" t="n">
         <v>0.540817330708147</v>
@@ -9322,13 +10672,22 @@
       <c r="O151" s="2" t="n">
         <v>0.99991657106862</v>
       </c>
-    </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P151" s="2" t="n">
+        <v>8.34289313801094E-005</v>
+      </c>
+      <c r="Q151" s="2" t="n">
+        <v>0.99991657106862</v>
+      </c>
+      <c r="R151" s="2" t="n">
+        <v>0.964722454547882</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="2" t="n">
         <v>150</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C152" s="2" t="n">
         <v>506.113</v>
@@ -9352,10 +10711,10 @@
         <v>14</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="K152" s="2" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="L152" s="2" t="n">
         <v>0.548451553886398</v>
@@ -9369,13 +10728,22 @@
       <c r="O152" s="2" t="n">
         <v>0.999936302015831</v>
       </c>
-    </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P152" s="2" t="n">
+        <v>6.36979841688268E-005</v>
+      </c>
+      <c r="Q152" s="2" t="n">
+        <v>0.999936302015831</v>
+      </c>
+      <c r="R152" s="2" t="n">
+        <v>0.993926107883453</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="2" t="n">
         <v>151</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C153" s="2" t="n">
         <v>509.974</v>
@@ -9399,10 +10767,10 @@
         <v>3</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="K153" s="2" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="L153" s="2" t="n">
         <v>-0.0544907290324382</v>
@@ -9416,13 +10784,22 @@
       <c r="O153" s="2" t="n">
         <v>0.0436034840227382</v>
       </c>
-    </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P153" s="2" t="n">
+        <v>0.956396515977262</v>
+      </c>
+      <c r="Q153" s="2" t="n">
+        <v>0.0436034840227382</v>
+      </c>
+      <c r="R153" s="2" t="n">
+        <v>0.22815652191639</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="2" t="n">
         <v>152</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C154" s="2" t="n">
         <v>511.134</v>
@@ -9446,10 +10823,10 @@
         <v>18</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="K154" s="2" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="L154" s="2" t="n">
         <v>0.566137935980049</v>
@@ -9463,13 +10840,22 @@
       <c r="O154" s="2" t="n">
         <v>0.999950427195854</v>
       </c>
-    </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P154" s="2" t="n">
+        <v>4.95728041461445E-005</v>
+      </c>
+      <c r="Q154" s="2" t="n">
+        <v>0.999950427195854</v>
+      </c>
+      <c r="R154" s="2" t="n">
+        <v>0.993996381759644</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="2" t="n">
         <v>153</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C155" s="2" t="n">
         <v>515.612</v>
@@ -9493,10 +10879,10 @@
         <v>3</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="K155" s="2" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="L155" s="2" t="n">
         <v>-0.264933115644144</v>
@@ -9510,13 +10896,22 @@
       <c r="O155" s="2" t="n">
         <v>1.51064718580992E-006</v>
       </c>
-    </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P155" s="2" t="n">
+        <v>0.999998489352814</v>
+      </c>
+      <c r="Q155" s="2" t="n">
+        <v>1.51064718580992E-006</v>
+      </c>
+      <c r="R155" s="2" t="n">
+        <v>0.00453843176364899</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="2" t="n">
         <v>154</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C156" s="2" t="n">
         <v>516.712</v>
@@ -9540,10 +10935,10 @@
         <v>1</v>
       </c>
       <c r="J156" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="K156" s="2" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="L156" s="2" t="n">
         <v>-0.167593726215722</v>
@@ -9557,13 +10952,22 @@
       <c r="O156" s="2" t="n">
         <v>0.00410741127143306</v>
       </c>
-    </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P156" s="2" t="n">
+        <v>0.995892588728567</v>
+      </c>
+      <c r="Q156" s="2" t="n">
+        <v>0.00410741127143306</v>
+      </c>
+      <c r="R156" s="2" t="n">
+        <v>0.0761324837803841</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="2" t="n">
         <v>155</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C157" s="2" t="n">
         <v>517.652</v>
@@ -9587,10 +10991,10 @@
         <v>11</v>
       </c>
       <c r="J157" s="2" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="K157" s="2" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="L157" s="2" t="n">
         <v>0.424441280394521</v>
@@ -9604,13 +11008,22 @@
       <c r="O157" s="2" t="n">
         <v>0.999595611472613</v>
       </c>
-    </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P157" s="2" t="n">
+        <v>0.00040438852738726</v>
+      </c>
+      <c r="Q157" s="2" t="n">
+        <v>0.999595611472613</v>
+      </c>
+      <c r="R157" s="2" t="n">
+        <v>0.986777245998383</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="2" t="n">
         <v>156</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C158" s="2" t="n">
         <v>521.213</v>
@@ -9634,10 +11047,10 @@
         <v>38</v>
       </c>
       <c r="J158" s="2" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="K158" s="2" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="L158" s="2" t="n">
         <v>0.67200155391716</v>
@@ -9651,13 +11064,22 @@
       <c r="O158" s="2" t="n">
         <v>0.999989756021206</v>
       </c>
-    </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P158" s="2" t="n">
+        <v>1.02439787944889E-005</v>
+      </c>
+      <c r="Q158" s="2" t="n">
+        <v>0.999989756021206</v>
+      </c>
+      <c r="R158" s="2" t="n">
+        <v>0.998573064804077</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="2" t="n">
         <v>157</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C159" s="2" t="n">
         <v>533.756</v>
@@ -9681,10 +11103,10 @@
         <v>15</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="K159" s="2" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="L159" s="2" t="n">
         <v>0.368174959518806</v>
@@ -9698,13 +11120,22 @@
       <c r="O159" s="2" t="n">
         <v>0.999131417988334</v>
       </c>
-    </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P159" s="2" t="n">
+        <v>0.000868582011666433</v>
+      </c>
+      <c r="Q159" s="2" t="n">
+        <v>0.999131417988334</v>
+      </c>
+      <c r="R159" s="2" t="n">
+        <v>0.999356329441071</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="2" t="n">
         <v>158</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C160" s="2" t="n">
         <v>537.737</v>
@@ -9728,10 +11159,10 @@
         <v>1</v>
       </c>
       <c r="J160" s="2" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="K160" s="2" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="L160" s="2" t="n">
         <v>-0.0410020173775933</v>
@@ -9745,13 +11176,22 @@
       <c r="O160" s="2" t="n">
         <v>0.018221827525781</v>
       </c>
-    </row>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P160" s="2" t="n">
+        <v>0.981778172474219</v>
+      </c>
+      <c r="Q160" s="2" t="n">
+        <v>0.018221827525781</v>
+      </c>
+      <c r="R160" s="2" t="n">
+        <v>0.000484062446048483</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="2" t="n">
         <v>159</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C161" s="2" t="n">
         <v>538.657</v>
@@ -9775,10 +11215,10 @@
         <v>20</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="K161" s="2" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="L161" s="2" t="n">
         <v>0.659633242951631</v>
@@ -9792,13 +11232,22 @@
       <c r="O161" s="2" t="n">
         <v>0.999987603112157</v>
       </c>
-    </row>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P161" s="2" t="n">
+        <v>1.23968878431466E-005</v>
+      </c>
+      <c r="Q161" s="2" t="n">
+        <v>0.999987603112157</v>
+      </c>
+      <c r="R161" s="2" t="n">
+        <v>0.997449100017548</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="2" t="n">
         <v>160</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C162" s="2" t="n">
         <v>544.385</v>
@@ -9822,10 +11271,10 @@
         <v>16</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="K162" s="2" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="L162" s="2" t="n">
         <v>0.588787610105297</v>
@@ -9839,13 +11288,22 @@
       <c r="O162" s="2" t="n">
         <v>0.99996522787414</v>
       </c>
-    </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P162" s="2" t="n">
+        <v>3.47721258596064E-005</v>
+      </c>
+      <c r="Q162" s="2" t="n">
+        <v>0.99996522787414</v>
+      </c>
+      <c r="R162" s="2" t="n">
+        <v>0.998835027217865</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="2" t="n">
         <v>161</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="C163" s="2" t="n">
         <v>548.648</v>
@@ -9869,10 +11327,10 @@
         <v>9</v>
       </c>
       <c r="J163" s="2" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="K163" s="2" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="L163" s="2" t="n">
         <v>0.432539994528444</v>
@@ -9886,13 +11344,22 @@
       <c r="O163" s="2" t="n">
         <v>0.99966019217579</v>
       </c>
-    </row>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P163" s="2" t="n">
+        <v>0.000339807824210449</v>
+      </c>
+      <c r="Q163" s="2" t="n">
+        <v>0.99966019217579</v>
+      </c>
+      <c r="R163" s="2" t="n">
+        <v>0.999176800251007</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="2" t="n">
         <v>162</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C164" s="2" t="n">
         <v>551.429</v>
@@ -9916,10 +11383,10 @@
         <v>14</v>
       </c>
       <c r="J164" s="2" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="K164" s="2" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="L164" s="2" t="n">
         <v>0.648469355665935</v>
@@ -9933,13 +11400,22 @@
       <c r="O164" s="2" t="n">
         <v>0.999985550599071</v>
       </c>
-    </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P164" s="2" t="n">
+        <v>1.44494009295118E-005</v>
+      </c>
+      <c r="Q164" s="2" t="n">
+        <v>0.999985550599071</v>
+      </c>
+      <c r="R164" s="2" t="n">
+        <v>0.998695552349091</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="2" t="n">
         <v>163</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C165" s="2" t="n">
         <v>556.212</v>
@@ -9963,10 +11439,10 @@
         <v>3</v>
       </c>
       <c r="J165" s="2" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="K165" s="2" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="L165" s="2" t="n">
         <v>0.320150586441428</v>
@@ -9980,13 +11456,22 @@
       <c r="O165" s="2" t="n">
         <v>0.998000496885072</v>
       </c>
-    </row>
-    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P165" s="2" t="n">
+        <v>0.00199950311492795</v>
+      </c>
+      <c r="Q165" s="2" t="n">
+        <v>0.998000496885072</v>
+      </c>
+      <c r="R165" s="2" t="n">
+        <v>0.985662996768951</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="2" t="n">
         <v>164</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C166" s="2" t="n">
         <v>557.633</v>
@@ -10010,10 +11495,10 @@
         <v>9</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="K166" s="2" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="L166" s="2" t="n">
         <v>0.436698779299064</v>
@@ -10027,13 +11512,22 @@
       <c r="O166" s="2" t="n">
         <v>0.999679588185905</v>
       </c>
-    </row>
-    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P166" s="2" t="n">
+        <v>0.000320411814094912</v>
+      </c>
+      <c r="Q166" s="2" t="n">
+        <v>0.999679588185905</v>
+      </c>
+      <c r="R166" s="2" t="n">
+        <v>0.998896956443787</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="2" t="n">
         <v>165</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="C167" s="2" t="n">
         <v>560.655</v>
@@ -10057,10 +11551,10 @@
         <v>21</v>
       </c>
       <c r="J167" s="2" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="K167" s="2" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="L167" s="2" t="n">
         <v>0.524544680033878</v>
@@ -10074,13 +11568,22 @@
       <c r="O167" s="2" t="n">
         <v>0.999911658592451</v>
       </c>
-    </row>
-    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P167" s="2" t="n">
+        <v>8.83414075486388E-005</v>
+      </c>
+      <c r="Q167" s="2" t="n">
+        <v>0.999911658592451</v>
+      </c>
+      <c r="R167" s="2" t="n">
+        <v>0.999037861824036</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="2" t="n">
         <v>166</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C168" s="2" t="n">
         <v>567.239</v>
@@ -10104,10 +11607,10 @@
         <v>2</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="K168" s="2" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="L168" s="2" t="n">
         <v>-0.227549105515093</v>
@@ -10121,13 +11624,22 @@
       <c r="O168" s="2" t="n">
         <v>1.22145925695002E-005</v>
       </c>
-    </row>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P168" s="2" t="n">
+        <v>0.999987785407431</v>
+      </c>
+      <c r="Q168" s="2" t="n">
+        <v>1.22145925695002E-005</v>
+      </c>
+      <c r="R168" s="2" t="n">
+        <v>0.0989465937018395</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="2" t="n">
         <v>167</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C169" s="2" t="n">
         <v>568.877</v>
@@ -10151,10 +11663,10 @@
         <v>10</v>
       </c>
       <c r="J169" s="2" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="K169" s="2" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="L169" s="2" t="n">
         <v>-0.558574015681351</v>
@@ -10168,13 +11680,22 @@
       <c r="O169" s="2" t="n">
         <v>2.70072252388409E-010</v>
       </c>
-    </row>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P169" s="2" t="n">
+        <v>0.999999999729928</v>
+      </c>
+      <c r="Q169" s="2" t="n">
+        <v>2.70072252388409E-010</v>
+      </c>
+      <c r="R169" s="2" t="n">
+        <v>0.000797833548858762</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="2" t="n">
         <v>168</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C170" s="2" t="n">
         <v>571.839</v>
@@ -10198,10 +11719,10 @@
         <v>9</v>
       </c>
       <c r="J170" s="2" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="K170" s="2" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="L170" s="2" t="n">
         <v>0.359276047093927</v>
@@ -10215,13 +11736,22 @@
       <c r="O170" s="2" t="n">
         <v>0.999008131535988</v>
       </c>
-    </row>
-    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P170" s="2" t="n">
+        <v>0.00099186846401179</v>
+      </c>
+      <c r="Q170" s="2" t="n">
+        <v>0.999008131535988</v>
+      </c>
+      <c r="R170" s="2" t="n">
+        <v>0.999099612236023</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="2" t="n">
         <v>169</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C171" s="2" t="n">
         <v>574.721</v>
@@ -10245,10 +11775,10 @@
         <v>5</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="K171" s="2" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="L171" s="2" t="n">
         <v>0.103765591741063</v>
@@ -10262,13 +11792,22 @@
       <c r="O171" s="2" t="n">
         <v>0.957956162605944</v>
       </c>
-    </row>
-    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P171" s="2" t="n">
+        <v>0.0420438373940558</v>
+      </c>
+      <c r="Q171" s="2" t="n">
+        <v>0.957956162605944</v>
+      </c>
+      <c r="R171" s="2" t="n">
+        <v>0.995408236980438</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="2" t="n">
         <v>170</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C172" s="2" t="n">
         <v>577.443</v>
@@ -10292,10 +11831,10 @@
         <v>11</v>
       </c>
       <c r="J172" s="2" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="K172" s="2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="L172" s="2" t="n">
         <v>0.394851297351778</v>
@@ -10309,13 +11848,22 @@
       <c r="O172" s="2" t="n">
         <v>0.999409790142893</v>
       </c>
-    </row>
-    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P172" s="2" t="n">
+        <v>0.000590209857106637</v>
+      </c>
+      <c r="Q172" s="2" t="n">
+        <v>0.999409790142893</v>
+      </c>
+      <c r="R172" s="2" t="n">
+        <v>0.99813973903656</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="2" t="n">
         <v>171</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C173" s="2" t="n">
         <v>580.425</v>
@@ -10339,10 +11887,10 @@
         <v>16</v>
       </c>
       <c r="J173" s="2" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="K173" s="2" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="L173" s="2" t="n">
         <v>0.54320236889207</v>
@@ -10356,13 +11904,22 @@
       <c r="O173" s="2" t="n">
         <v>0.999932682520828</v>
       </c>
-    </row>
-    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P173" s="2" t="n">
+        <v>6.7317479172456E-005</v>
+      </c>
+      <c r="Q173" s="2" t="n">
+        <v>0.999932682520828</v>
+      </c>
+      <c r="R173" s="2" t="n">
+        <v>0.998983681201935</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="2" t="n">
         <v>172</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C174" s="2" t="n">
         <v>585.348</v>
@@ -10386,10 +11943,10 @@
         <v>15</v>
       </c>
       <c r="J174" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="K174" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L174" s="2" t="n">
         <v>0.497301786532733</v>
@@ -10403,13 +11960,22 @@
       <c r="O174" s="2" t="n">
         <v>0.999867914593324</v>
       </c>
-    </row>
-    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P174" s="2" t="n">
+        <v>0.000132085406675679</v>
+      </c>
+      <c r="Q174" s="2" t="n">
+        <v>0.999867914593324</v>
+      </c>
+      <c r="R174" s="2" t="n">
+        <v>0.998584151268005</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="2" t="n">
         <v>173</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C175" s="2" t="n">
         <v>592.212</v>
@@ -10433,10 +11999,10 @@
         <v>18</v>
       </c>
       <c r="J175" s="2" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="K175" s="2" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="L175" s="2" t="n">
         <v>0.62963792417458</v>
@@ -10450,13 +12016,22 @@
       <c r="O175" s="2" t="n">
         <v>0.999980975079461</v>
       </c>
-    </row>
-    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P175" s="2" t="n">
+        <v>1.90249205391846E-005</v>
+      </c>
+      <c r="Q175" s="2" t="n">
+        <v>0.999980975079461</v>
+      </c>
+      <c r="R175" s="2" t="n">
+        <v>0.998527765274048</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="2" t="n">
         <v>174</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C176" s="2" t="n">
         <v>597.433</v>
@@ -10480,10 +12055,10 @@
         <v>19</v>
       </c>
       <c r="J176" s="2" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="K176" s="2" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="L176" s="2" t="n">
         <v>0.497561693103938</v>
@@ -10497,13 +12072,22 @@
       <c r="O176" s="2" t="n">
         <v>0.999869254857454</v>
       </c>
-    </row>
-    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P176" s="2" t="n">
+        <v>0.000130745142546009</v>
+      </c>
+      <c r="Q176" s="2" t="n">
+        <v>0.999869254857454</v>
+      </c>
+      <c r="R176" s="2" t="n">
+        <v>0.999338448047638</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="2" t="n">
         <v>175</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C177" s="2" t="n">
         <v>603.136</v>
@@ -10527,10 +12111,10 @@
         <v>6</v>
       </c>
       <c r="J177" s="2" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="K177" s="2" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="L177" s="2" t="n">
         <v>-0.23442330792735</v>
@@ -10544,13 +12128,22 @@
       <c r="O177" s="2" t="n">
         <v>5.06153975793944E-006</v>
       </c>
-    </row>
-    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P177" s="2" t="n">
+        <v>0.999994938460242</v>
+      </c>
+      <c r="Q177" s="2" t="n">
+        <v>5.06153975793944E-006</v>
+      </c>
+      <c r="R177" s="2" t="n">
+        <v>0.0316786281764507</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="2" t="n">
         <v>176</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C178" s="2" t="n">
         <v>605.458</v>
@@ -10574,10 +12167,10 @@
         <v>1</v>
       </c>
       <c r="J178" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K178" s="2" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="L178" s="2" t="n">
         <v>0.147328522307921</v>
@@ -10591,13 +12184,22 @@
       <c r="O178" s="2" t="n">
         <v>0.959476692757497</v>
       </c>
-    </row>
-    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P178" s="2" t="n">
+        <v>0.0405233072425035</v>
+      </c>
+      <c r="Q178" s="2" t="n">
+        <v>0.959476692757497</v>
+      </c>
+      <c r="R178" s="2" t="n">
+        <v>0.871584177017212</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="2" t="n">
         <v>177</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C179" s="2" t="n">
         <v>605.938</v>
@@ -10621,10 +12223,10 @@
         <v>9</v>
       </c>
       <c r="J179" s="2" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="K179" s="2" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="L179" s="2" t="n">
         <v>0.357867178887676</v>
@@ -10638,13 +12240,22 @@
       <c r="O179" s="2" t="n">
         <v>0.99897556846119</v>
       </c>
-    </row>
-    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P179" s="2" t="n">
+        <v>0.00102443153881026</v>
+      </c>
+      <c r="Q179" s="2" t="n">
+        <v>0.99897556846119</v>
+      </c>
+      <c r="R179" s="2" t="n">
+        <v>0.997933268547058</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="2" t="n">
         <v>178</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C180" s="2" t="n">
         <v>609.08</v>
@@ -10668,10 +12279,10 @@
         <v>16</v>
       </c>
       <c r="J180" s="2" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="K180" s="2" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="L180" s="2" t="n">
         <v>0.502155233660606</v>
@@ -10685,13 +12296,22 @@
       <c r="O180" s="2" t="n">
         <v>0.999874619862557</v>
       </c>
-    </row>
-    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P180" s="2" t="n">
+        <v>0.000125380137442594</v>
+      </c>
+      <c r="Q180" s="2" t="n">
+        <v>0.999874619862557</v>
+      </c>
+      <c r="R180" s="2" t="n">
+        <v>0.996475636959076</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="2" t="n">
         <v>179</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C181" s="2" t="n">
         <v>614.843</v>
@@ -10715,10 +12335,10 @@
         <v>9</v>
       </c>
       <c r="J181" s="2" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="K181" s="2" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="L181" s="2" t="n">
         <v>0.47888421085458</v>
@@ -10732,13 +12352,22 @@
       <c r="O181" s="2" t="n">
         <v>0.999822660275847</v>
       </c>
-    </row>
-    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P181" s="2" t="n">
+        <v>0.000177339724152876</v>
+      </c>
+      <c r="Q181" s="2" t="n">
+        <v>0.999822660275847</v>
+      </c>
+      <c r="R181" s="2" t="n">
+        <v>0.996307134628296</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="2" t="n">
         <v>180</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="C182" s="2" t="n">
         <v>617.264</v>
@@ -10762,10 +12391,10 @@
         <v>7</v>
       </c>
       <c r="J182" s="2" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="K182" s="2" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="L182" s="2" t="n">
         <v>0.314120055345521</v>
@@ -10779,13 +12408,22 @@
       <c r="O182" s="2" t="n">
         <v>0.997435372063449</v>
       </c>
-    </row>
-    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P182" s="2" t="n">
+        <v>0.00256462793655072</v>
+      </c>
+      <c r="Q182" s="2" t="n">
+        <v>0.997435372063449</v>
+      </c>
+      <c r="R182" s="2" t="n">
+        <v>0.949669361114502</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="2" t="n">
         <v>181</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="C183" s="2" t="n">
         <v>619.786</v>
@@ -10809,10 +12447,10 @@
         <v>5</v>
       </c>
       <c r="J183" s="2" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="K183" s="2" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="L183" s="2" t="n">
         <v>-0.432059287425773</v>
@@ -10826,13 +12464,22 @@
       <c r="O183" s="2" t="n">
         <v>5.54506266876817E-008</v>
       </c>
-    </row>
-    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P183" s="2" t="n">
+        <v>0.999999944549373</v>
+      </c>
+      <c r="Q183" s="2" t="n">
+        <v>5.54506266876817E-008</v>
+      </c>
+      <c r="R183" s="2" t="n">
+        <v>0.170784413814545</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="2" t="n">
         <v>182</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="C184" s="2" t="n">
         <v>622.027</v>
@@ -10856,10 +12503,10 @@
         <v>4</v>
       </c>
       <c r="J184" s="2" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="K184" s="2" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="L184" s="2" t="n">
         <v>-0.295308844482239</v>
@@ -10873,13 +12520,22 @@
       <c r="O184" s="2" t="n">
         <v>0.00598525617434444</v>
       </c>
-    </row>
-    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P184" s="2" t="n">
+        <v>0.994014743825656</v>
+      </c>
+      <c r="Q184" s="2" t="n">
+        <v>0.00598525617434444</v>
+      </c>
+      <c r="R184" s="2" t="n">
+        <v>0.570092022418976</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="2" t="n">
         <v>183</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="C185" s="2" t="n">
         <v>623.925</v>
@@ -10903,10 +12559,10 @@
         <v>3</v>
       </c>
       <c r="J185" s="2" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="K185" s="2" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="L185" s="2" t="n">
         <v>0.109327613661475</v>
@@ -10920,13 +12576,22 @@
       <c r="O185" s="2" t="n">
         <v>0.377606487682739</v>
       </c>
-    </row>
-    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P185" s="2" t="n">
+        <v>0.622393512317261</v>
+      </c>
+      <c r="Q185" s="2" t="n">
+        <v>0.377606487682739</v>
+      </c>
+      <c r="R185" s="2" t="n">
+        <v>0.227126315236092</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="2" t="n">
         <v>184</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="C186" s="2" t="n">
         <v>653.155</v>
@@ -10950,10 +12615,10 @@
         <v>17</v>
       </c>
       <c r="J186" s="2" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="K186" s="2" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="L186" s="2" t="n">
         <v>0.644332995676393</v>
@@ -10967,13 +12632,22 @@
       <c r="O186" s="2" t="n">
         <v>0.999978631211027</v>
       </c>
-    </row>
-    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P186" s="2" t="n">
+        <v>2.13687889730034E-005</v>
+      </c>
+      <c r="Q186" s="2" t="n">
+        <v>0.999978631211027</v>
+      </c>
+      <c r="R186" s="2" t="n">
+        <v>0.945500195026398</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="2" t="n">
         <v>185</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C187" s="2" t="n">
         <v>658.326</v>
@@ -10997,10 +12671,10 @@
         <v>9</v>
       </c>
       <c r="J187" s="2" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="K187" s="2" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="L187" s="2" t="n">
         <v>-0.440970673532542</v>
@@ -11014,13 +12688,22 @@
       <c r="O187" s="2" t="n">
         <v>1.36062047266523E-005</v>
       </c>
-    </row>
-    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P187" s="2" t="n">
+        <v>0.999986393795273</v>
+      </c>
+      <c r="Q187" s="2" t="n">
+        <v>1.36062047266523E-005</v>
+      </c>
+      <c r="R187" s="2" t="n">
+        <v>0.751830399036408</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="2" t="n">
         <v>186</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="C188" s="2" t="n">
         <v>661.573</v>
@@ -11044,10 +12727,10 @@
         <v>7</v>
       </c>
       <c r="J188" s="2" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="K188" s="2" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="L188" s="2" t="n">
         <v>0.398034087911502</v>
@@ -11061,13 +12744,22 @@
       <c r="O188" s="2" t="n">
         <v>0.959284857720525</v>
       </c>
-    </row>
-    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P188" s="2" t="n">
+        <v>0.0407151422794747</v>
+      </c>
+      <c r="Q188" s="2" t="n">
+        <v>0.959284857720525</v>
+      </c>
+      <c r="R188" s="2" t="n">
+        <v>0.151529341936112</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="2" t="n">
         <v>187</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C189" s="2" t="n">
         <v>663.957</v>
@@ -11091,10 +12783,10 @@
         <v>23</v>
       </c>
       <c r="J189" s="2" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="K189" s="2" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="L189" s="2" t="n">
         <v>0.541645098639778</v>
@@ -11108,13 +12800,22 @@
       <c r="O189" s="2" t="n">
         <v>0.999927457515689</v>
       </c>
-    </row>
-    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P189" s="2" t="n">
+        <v>7.25424843115769E-005</v>
+      </c>
+      <c r="Q189" s="2" t="n">
+        <v>0.999927457515689</v>
+      </c>
+      <c r="R189" s="2" t="n">
+        <v>0.982690870761871</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="2" t="n">
         <v>188</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="C190" s="2" t="n">
         <v>671.332</v>
@@ -11138,10 +12839,10 @@
         <v>10</v>
       </c>
       <c r="J190" s="2" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="K190" s="2" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="L190" s="2" t="n">
         <v>0.419364968622606</v>
@@ -11154,6 +12855,15 @@
       </c>
       <c r="O190" s="2" t="n">
         <v>0.995517453258893</v>
+      </c>
+      <c r="P190" s="2" t="n">
+        <v>0.00448254674110741</v>
+      </c>
+      <c r="Q190" s="2" t="n">
+        <v>0.995517453258893</v>
+      </c>
+      <c r="R190" s="2" t="n">
+        <v>0.381334751844406</v>
       </c>
     </row>
   </sheetData>
@@ -11178,194 +12888,194 @@
       <selection pane="topLeft" activeCell="BH3" activeCellId="0" sqref="BH3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>623</v>
+        <v>15</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>624</v>
+        <v>16</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>625</v>
+        <v>17</v>
       </c>
       <c r="BK1" s="1" t="s">
         <v>626</v>
@@ -11580,21 +13290,21 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="290" zoomScaleNormal="290" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="290" zoomScaleNormal="290" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>623</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>624</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>625</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="403.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
